--- a/STLP/NLP/Files/groups_and_members.xlsx
+++ b/STLP/NLP/Files/groups_and_members.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WebGenie\STLP\NLP\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80D6BCCA-6D70-4526-8D29-CA2D93983CFE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83580EF7-7B94-4EF4-A03B-C1C7E50C31CD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="401">
   <si>
     <t>Groups</t>
   </si>
@@ -564,6 +564,9 @@
     <t xml:space="preserve">42 44 48 89 94 119 13 132 134 137 142 144 152 173 175 185 189 201 208 228 241 253 281 282 284 285 290 293 375 399 433 436 444 454 455 483 486 495 </t>
   </si>
   <si>
+    <t>Group</t>
+  </si>
+  <si>
     <t xml:space="preserve">4 5 6 7 8 10 46 107 118 224 440 </t>
   </si>
   <si>
@@ -573,60 +576,21 @@
     <t xml:space="preserve">59 60 62 155 </t>
   </si>
   <si>
-    <t>81 352 916 1502 1648 1650 1770 1784 2549</t>
-  </si>
-  <si>
     <t>79 262</t>
   </si>
   <si>
-    <t>104 177 334 421 452 476 477 660 1068 1119 1125 2844</t>
-  </si>
-  <si>
-    <t>306 1045 1056 1101 1710 1727 1793</t>
-  </si>
-  <si>
     <t>163 815 2371 2531</t>
   </si>
   <si>
-    <t>122 133 174 183 226 406 588 770 1077 1733</t>
-  </si>
-  <si>
-    <t>92 647 700 788 918 922 1344 1428 2755 2834</t>
-  </si>
-  <si>
-    <t>479 506 587 594 644 903 904 912 1359 1360 1472 1507 1681 1761 1886 1942 2026 2213 2426 2561 2562</t>
-  </si>
-  <si>
-    <t>366 434</t>
-  </si>
-  <si>
-    <t>127 321 463 672 701 706 715 717 784 872 1218 1328 1331 1960 2083 2111 2114 2153 2245 2265 2476 2528 2650 2940</t>
-  </si>
-  <si>
-    <t>209 323 499 517 520 847 1216 1549 1952 1993 2142 2823 2989</t>
-  </si>
-  <si>
-    <t>154 389 410 457 468 725 1018 1230 1323 1376 1379 2176 2807</t>
-  </si>
-  <si>
-    <t>158 159 160 1300 1301 1645 1646 2698 2700</t>
-  </si>
-  <si>
     <t>198 505 1141 2736</t>
   </si>
   <si>
     <t>210 2504 2817 1076</t>
   </si>
   <si>
-    <t>408 515 553 569 575 619 664 668 677 690 693 696 697 702 761 762 806 814 849 850 851 852 895 899 925 940 1003 1026 1082 1086 1088 1097 1100 1251 1297 1355 1371 1388 1435 1448 1576 1605 1607 1608 1623 1652 1653 1696 1802 1803 1804 1807 1808 1809 1810 1828 1831 1832 1833 1834 1836 1838 1839 1842 1943 1948 1981 1982 1991 2004 2037 2080 2121 2127 2141 2212 2447 2448 2548 2558 2559 2664 2712 2778 2796 2851 2875 2930</t>
-  </si>
-  <si>
     <t>350 544 662 1422 1583 2036</t>
   </si>
   <si>
-    <t>248 250 724</t>
-  </si>
-  <si>
     <t>313 320</t>
   </si>
   <si>
@@ -663,381 +627,27 @@
     <t>105 416</t>
   </si>
   <si>
-    <t>4 5 6 7 8 10 46 107 118 224 440 919 1153 1182 1383 1384 1418 1424 1492 1552 1616 2480 2744 2763 2767 2950 2980 2983 2987 2994 215 222 273 369</t>
-  </si>
-  <si>
-    <t>112 1737 2996 370 511 626 2238 2456 2614 2829</t>
-  </si>
-  <si>
-    <t>12 13 14 17 18 19 20 21 22 23 24 25 26 27 28 29 30 31 32 33 34 38 95 172 270 445 460 501 536 554 576 583 625 627 632 639 663 675 699 716 730 733 737 752 779 789 801 831 832 863 888 889 920 926 933 937 949 965 970 979 982 983 984 992 998 1027 1028 1031 1062 1065 1069 1115  1137 1145 1160 1173 1177 1187 1195 1209 1219 1223 1243 1244 1256 1283 1284 1307 1311 1337 1341 1342 1347 1361 1417 1438 1487 1510 1541 1542 1543 1614 1635 1669 1689 1708 1729 1734 1740 1765 1766 1769 1787 1821 1860 1861 1865 1873 1882 1884 1897 1899 1930 1941 1949 1957 1962 1975 1995 2009 2017 2041 2054 2087 2115 2118 2134 2251 2258 2259 2268 2300 2315 2325 2358 2361 2374 2437 2632 2687 2753 2788 2853 261 414 584 893 1237 1578 1627 2581 2674 2849 35 36 40 41 42 44 48 89 94 119 130 132 134 137 142 144 152 173 175 185 189 201 208 228 241 253 281 282 284 285 290 293 375 399 433 436 444 454 455 483 486 495 2377 2384 2388 2389 2396 2408 2416 2418 2419 2436 2438 2452 2467 2475 2484 2494 2498 2515 2517 2521 2523 2526 2527 2532 2534 2536 2537 2541 2546 2550 2551 2553 2554 2555 2557 2567 2572 2577 2583 2585 2592 2616 2636 2637 2638 2639 2640 2641 2643 2647 2648 2658 2665 2670 2673 2680 2682 2686 2691 2692 2705 2717 2718 2722 2729 2730 2732 2733 2734 2735 2739 2748 2750 2754 2768 2773 2790 2794 2801 2806 2816 2833 2839 2840 2841 2843 2846 2847 2864 2876 2877 2879 2887 2893 2906 2919 2928 2937 2964 2973 2974 538 719 834 892 897 955 962 988 1019 1126 1213 1315 1363 1514 1567 1568 1892 1900 1953 2149 2185 2191 2194 2270 2276 2288 278 426 427 623 936 1273 2029 2120 2970</t>
-  </si>
-  <si>
-    <t>53 327 565 582 692 768 785 826 934 1179 1239 1452 1573 2231 2247 2313 2329 2378 2434 2743 2795 2896 329 339 349 392 447 481 490</t>
-  </si>
-  <si>
-    <t>59 60 62 155 559 790 798 821 1064 1104 1378 1385 1387 1403 1425 1442 1469 1490 1634 1816 1830 1851 1854 1922 2035 2126 2318 2382 2628 2656 2713 2721 2725 2783 2936 2956 2997 162 167 169 197 220 274 390 397 459 480 484 489 705 713 714 1037 1038 1039 1140 1143 1144 1168 1169 1221 1242 1247 1270 1282 1288 1304 1340 1386 1407 1409 1410 1411 1499 1509 1649 1745 1853 1910 1918 1946 2021 2028 2129 2208 2355 2514</t>
-  </si>
-  <si>
     <t>116 1757 1801 2005 2209 2529 2621 2655 2802 1102 1131 1446 1524 1590 371 1133 1161 1176 1180 1183 1192 1210 1275 1279 1280 1281 1286 1287 1326 1351 1353 1354 1389 1393 1404 1456 1462 1483 1484 1496 1555 1574 1577 1588 1603 1604 1610 1611 1615 1618 1654 1655 1746 1751 1785 1789 1791 1812 1829 1850 1852 1887 1976 1978 1979 2039 2040 2045 2147 2201 2218 2246 2404 2605 2765 2774 2781 2784 947 1000 411</t>
   </si>
   <si>
-    <t>96 98 99 100 102 115 165 401 492 504 557 579 649 651 938 1041 1197 1248 1644 1667 1749 1760 1885 1901 1903 1905 2078 2172 2173 2320 2387 2472 2474 2852 229 493 1571 1902 2143 2707 2904 2909</t>
-  </si>
-  <si>
-    <t>307 341 953 1375 1412 2086 2092 404 422</t>
-  </si>
-  <si>
     <t>441 522 691 442 443</t>
   </si>
   <si>
-    <t>166 171 264 1258 1458 1459 1739 372 377 412 428 429 430 478 491 496 497 498</t>
-  </si>
-  <si>
     <t>237 331 997 391 418</t>
   </si>
   <si>
-    <t>259 503 781 890 928 991 993 1071 1193 2075 260 265 266 268 269 271 364 415 424 425</t>
-  </si>
-  <si>
-    <t>413 509 618 674 735 1530 2122 2226 2228 2855 451</t>
-  </si>
-  <si>
     <t>286 287 288 289 294 295 296 303 325 328 338 394</t>
   </si>
   <si>
-    <t xml:space="preserve">535 727 1200 1369 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1293 1498 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">958 1058 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1531 1535 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">720 726 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">605 728 1226 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">540 543 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">825 883 954 1467 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">612 858 873 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">516 558 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1021 1043 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">769 1539 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">767 1030 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">555 646 780 836 960 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">551 598 611 703 778 1232 1330 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">570 613 617 670 723 1189 1235 1479 1606 1609 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">581 586 630 631 633 721 753 756 835 985 1464 1488 1489 1581 1582 1598 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">562 589 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">585 698 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1468 1516 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">629 638 751 1257 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">636 640 641 642 905 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">755 758 1322 1540 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">653 655 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">682 1593 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">745 747 749 750 845 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">683 766 772 812 975 1029 1316 1318 1319 1320 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">793 803 830 859 1123 1130 1174 1470 1519 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">694 1629 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">695 1095 1096 1098 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">732 734 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">742 743 744 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">879 882 906 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">898 1117 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">820 1349 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">774 967 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1012 1093 1277 1525 1554 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">787 868 1217 1250 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">794 896 935 989 1067 1094 1186 1199 1227 1228 1241 1262 1336 1397 1400 1447 1486 1559 1560 1561 1630 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">846 848 1085 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">980 1052 1118 1124 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1466 1471 1503 1558 1587 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">823 917 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">946 1047 1120 1325 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">941 996 1001 1002 1034 1036 1087 1147 1149 1155 1156 1163 1164 1166 1254 1263 1266 1295 1298 1352 1365 1366 1368 1414 1430 1437 1445 1475 1537 1569 1589 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1025 1271 1463 1504 1512 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1419 1599 1626 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1061 1544 1546 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1480 1575 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1044 1051 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1078 1201 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1024 1059 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1017 1022 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1105 1566 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1075 1079 1081 1234 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1110 1111 1134 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1135 1136 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1142 1167 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1206 1527 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1184 1191 1204 1305 1372 1406 1426 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1231 1485 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1269 1396 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1405 1441 1491 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1460 1505 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1564 1565 1570 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1817 1999 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1632 1643 1670 1677 2012 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1759 1813 2051 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1776 1814 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1867 1914 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1752 1919 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1913 1915 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1662 1663 1869 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1633 1777 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1661 1665 1672 1676 1684 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1673 1674 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1682 1685 1730 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1868 1872 1879 1893 1894 1895 1896 1927 1934 1936 2000 2003 2014 2033 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1690 1694 1731 1875 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1688 1716 1717 1926 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1718 2008 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1697 1723 1725 1728 1753 1762 1773 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1764 1783 1837 1856 1881 1987 2018 2023 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1713 1748 1940 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1741 1743 1795 1890 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1877 1878 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1799 2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1781 1782 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1797 1798 1891 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1923 2059 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1968 1969 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1984 1985 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">556 1666 </t>
-  </si>
-  <si>
     <t>15 66 77 91 110 111 117 124 125 138 140 141 153 202 214 308 344 351 383 388 395 396 435 449 453 475 502 560 573 620 658 659 738 777 810 813 843 891 894 909 921 924 929 950 994 1035 1073 1152 1198 1233 1246 1294 1299 1310 1377 1380 1381 1382 1408 1416 1423 1444 1451 1453 1476 1533 1707 1719 1720 1721 1805 1806 1835 1840 1841 1843 1844 1845 1846 1847 1848 1849 1883 1911 1917 1924 1939 1947 1951 2007 2013 2015 2044 2057 2058 2068 2079 2085 2103 2140 2183 2184 2214 2222 2344 2443 2444 2756 2758 2813 2871 2889 2952 2982 1391 1617</t>
   </si>
   <si>
-    <t xml:space="preserve">147 211 2391 2631 2669 2675 256 311 317 318 362 378 462 708 712 771 783 1159 1240 1343 1345 1402 1528 1744 1788 2038 2272 2968 1684 1698 </t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>1357</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">809 646 1738 </t>
-  </si>
-  <si>
     <t>246</t>
   </si>
   <si>
     <t>1786</t>
   </si>
   <si>
-    <t>257</t>
-  </si>
-  <si>
-    <t>258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">276 385 469 552 616 669 966 1150 </t>
-  </si>
-  <si>
-    <t>297</t>
-  </si>
-  <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>299</t>
-  </si>
-  <si>
-    <t>610</t>
-  </si>
-  <si>
     <t>405 407 465 467 676</t>
   </si>
   <si>
@@ -1050,108 +660,36 @@
     <t>1154</t>
   </si>
   <si>
-    <t>439</t>
-  </si>
-  <si>
-    <t>488</t>
-  </si>
-  <si>
-    <t>1747</t>
-  </si>
-  <si>
-    <t>519</t>
-  </si>
-  <si>
-    <t>1091</t>
-  </si>
-  <si>
     <t>549 862 1709</t>
   </si>
   <si>
     <t>549</t>
   </si>
   <si>
-    <t>552</t>
-  </si>
-  <si>
-    <t>561</t>
-  </si>
-  <si>
-    <t>590</t>
-  </si>
-  <si>
     <t>624 1154</t>
   </si>
   <si>
-    <t>593</t>
-  </si>
-  <si>
-    <t>842</t>
-  </si>
-  <si>
     <t>1658 780</t>
   </si>
   <si>
-    <t>681</t>
-  </si>
-  <si>
-    <t>1820</t>
-  </si>
-  <si>
     <t>1433 2027</t>
   </si>
   <si>
-    <t>793</t>
-  </si>
-  <si>
-    <t>802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">931 932 935 945 1364 1373 </t>
-  </si>
-  <si>
-    <t>939</t>
-  </si>
-  <si>
-    <t>966</t>
-  </si>
-  <si>
-    <t>995</t>
-  </si>
-  <si>
-    <t>1478</t>
-  </si>
-  <si>
     <t>1108</t>
   </si>
   <si>
     <t>1129</t>
   </si>
   <si>
-    <t>1109</t>
-  </si>
-  <si>
     <t>1495 1130</t>
   </si>
   <si>
-    <t>1174</t>
-  </si>
-  <si>
-    <t>1181</t>
-  </si>
-  <si>
     <t>1203 1222 1983</t>
   </si>
   <si>
     <t>1207 1686</t>
   </si>
   <si>
-    <t>1212</t>
-  </si>
-  <si>
-    <t>1224</t>
-  </si>
-  <si>
     <t>1597 1768</t>
   </si>
   <si>
@@ -1161,12 +699,6 @@
     <t>1339 1726</t>
   </si>
   <si>
-    <t>1332</t>
-  </si>
-  <si>
-    <t>1436</t>
-  </si>
-  <si>
     <t>1449 1515 1600 1811</t>
   </si>
   <si>
@@ -1182,31 +714,517 @@
     <t>1912</t>
   </si>
   <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>2042</t>
-  </si>
-  <si>
-    <t>1937</t>
-  </si>
-  <si>
-    <t>1938</t>
-  </si>
-  <si>
     <t>1977</t>
   </si>
   <si>
     <t>1980</t>
   </si>
   <si>
-    <t>1983</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1998</t>
+    <t>81 352 916 1502 1648 1650 1770 1784 2549 3079 3238 3452 3951</t>
+  </si>
+  <si>
+    <t>4 5 6 7 8 10 46 107 118 224 440 919 1153 1182 1383 1384 1418 1424 1492 1552 1616 2480 2744 2763 2767 2950 2980 2983 2987 2994 215 222 273 369 3015 3021 3056 3057 3069 3073 3172 3175 3186 3229 3232 3405 3426 3468 3681 3827 3861 3975 4095 4120 4178 4334 4538</t>
+  </si>
+  <si>
+    <t>12 13 14 17 18 19 20 21 22 23 24 25 26 27 28 29 30 31 32 33 34 38 95 172 270 445 460 501 536 554 576 583 625 627 632 639 663 675 699 716 730 733 737 752 779 789 793 801 831 832 863 888 889 920 926 933 937 949 965 970 979 982 983 984 992 998 1027 1028 1031 1062 1065 1069 1115  1137 1145 1160 1173 1177 1187 1195 1209 1219 1223 1243 1244 1256 1283 1284 1307 1311 1337 1341 1342 1347 1361 1417 1438 1487 1510 1541 1542 1543 1614 1635 1669 1689 1708 1729 1734 1740 1765 1766 1769 1787 1821 1860 1861 1865 1873 1882 1884 1897 1899 1930 1941 1949 1957 1962 1975 1995 2009 2017 2041 2054 2087 2115 2118 2134 2251 2258 2259 2268 2300 2315 2325 2358 2361 2374 2437 2632 2687 2753 2788 2853 261 414 584 893 1237 1578 1627 2581 2674 2849 35 36 40 41 42 44 48 89 94 119 130 132 134 137 142 144 152 173 175 185 189 201 208 228 241 253 281 282 284 285 290 293 375 399 433 436 444 454 455 483 486 495 2377 2384 2388 2389 2396 2408 2416 2418 2419 2436 2438 2452 2467 2475 2484 2494 2498 2515 2517 2521 2523 2526 2527 2532 2534 2536 2537 2541 2546 2550 2551 2553 2554 2555 2557 2567 2572 2577 2583 2585 2592 2616 2636 2637 2638 2639 2640 2641 2643 2647 2648 2658 2665 2670 2673 2680 2682 2686 2691 2692 2705 2717 2718 2722 2729 2730 2732 2733 2734 2735 2739 2748 2750 2754 2768 2773 2790 2794 2801 2806 2816 2833 2839 2840 2841 2843 2846 2847 2864 2876 2877 2879 2887 2893 2906 2919 2928 2937 2964 2973 2974 538 719 834 892 897 955 962 988 1019 1126 1213 1315 1363 1514 1567 1568 1892 1900 1953 2149 2185 2191 2194 2270 2276 2288 278 426 427 623 936 1273 2029 2120 2970 3023 3060 3075 3088 3099 3147 3167 3171 3173 3187 3207 3208 3251 3253 3353 3357 3372 3383 3400 3431 3447 3466 3514 3566 3574 3604 3659 3671 3675 3695 3723 3762 3889 3917 3949 3963 3965 4007 4028 4094 4115 4142 4245 4256 4297 4346 4384 4405 4419 4424 4437 4442 4452 4487 4493 4509 4541 4546 4551 4564 4577 4581 4594</t>
+  </si>
+  <si>
+    <t>104 177 334 421 452 476 477 660 1068 1119 1125 2844 3191 3475 4111 4268</t>
+  </si>
+  <si>
+    <t>1171 3327 4327</t>
+  </si>
+  <si>
+    <t>306 1045 1056 1101 1710 1727 1793 4173 4380</t>
+  </si>
+  <si>
+    <t>53 327 565 582 692 768 785 826 934 1179 1239 1452 1573 2231 2247 2313 2329 2378 2434 2743 2795 2896 329 339 349 392 447 481 490 3380 3620 3955 4069 4257 4286 4548</t>
+  </si>
+  <si>
+    <t>535 727 1200 1369 3106</t>
+  </si>
+  <si>
+    <t>1293 1498 4114</t>
+  </si>
+  <si>
+    <t>59 60 62 155 559 790 798 821 1064 1104 1378 1385 1387 1403 1425 1442 1469 1490 1634 1816 1830 1851 1854 1922 2035 2126 2318 2382 2628 2656 2713 2721 2725 2783 2936 2956 2997 162 167 169 197 220 274 390 397 459 480 484 489 705 713 714 1037 1038 1039 1140 1143 1144 1168 1169 1221 1242 1247 1270 1282 1288 1304 1340 1386 1407 1409 1410 1411 1499 1509 1649 1745 1853 1910 1918 1946 2021 2028 2129 2208 2355 2514 3001 3112 3553 3857 3858 4011 4025 4043 4175 4367 4450</t>
+  </si>
+  <si>
+    <t>1317 3300 3853</t>
+  </si>
+  <si>
+    <t>958 1058 3051 3052 3150 3151 3154 3157 3195 3198 3199 3418 4379 4506</t>
+  </si>
+  <si>
+    <t>122 133 174 183 226 406 588 770 1077 1733 3323 3446 3525 4214</t>
+  </si>
+  <si>
+    <t>1290 3215 3596 3649 3666 3708 3752 3753 3819 3911 4058 4088 4133 4152 4198 4335 4434 4521 4537 4583</t>
+  </si>
+  <si>
+    <t>147 211 2391 2631 2669 2675 256 311 317 318 362 378 462 708 712 771 783 1159 1240 1343 1345 1402 1528 1744 1788 2038 2272 2968 1684 1698 4253</t>
+  </si>
+  <si>
+    <t>1531 1535</t>
+  </si>
+  <si>
+    <t>1172 3430</t>
+  </si>
+  <si>
+    <t>112 1737 2996 370 511 626 2238 2456 2614 2829 3895 4168</t>
+  </si>
+  <si>
+    <t>720 726 3734</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>666 3222 4017 4313 4382</t>
+  </si>
+  <si>
+    <t>92 647 700 788 918 922 1344 1428 2755 2834 4118 4225</t>
+  </si>
+  <si>
+    <t>96 98 99 100 102 115 165 401 492 504 557 579 649 651 938 1041 1197 1248 1644 1667 1749 1760 1885 1901 1903 1905 2078 2172 2173 2320 2387 2472 2474 2852 229 493 1571 1902 2143 2707 2904 2909 3020 3594 3899 3947 3956</t>
+  </si>
+  <si>
+    <t>479 506 587 594 644 903 904 912 1359 1360 1472 1507 1681 1761 1886 1942 2026 2213 2426 2561 2562 3040 4240</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>366 434 3914</t>
+  </si>
+  <si>
+    <t>307 341 953 1375 1412 2086 2092 404 422 4066</t>
+  </si>
+  <si>
+    <t>127 321 463 672 701 706 715 717 784 872 1218 1328 1331 1960 2083 2111 2114 2153 2245 2265 2476 2528 2650 2940 3660 3836</t>
+  </si>
+  <si>
+    <t>209 323 499 517 520 847 1216 1549 1952 1993 2142 2823 2989 3083 3122 3736 3767 3987 4358 4362 4366 4398 4504</t>
+  </si>
+  <si>
+    <t>1817 1999 3691 4329 4363 4513</t>
+  </si>
+  <si>
+    <t>628 3435 3769</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>1705 3665 3784 3787 3829 3894 3969 4076 4181</t>
+  </si>
+  <si>
+    <t>154 389 410 457 468 725 1018 1230 1323 1376 1379 2176 2807 3329 3450 4009 4127 4145 4456 4498 4569</t>
+  </si>
+  <si>
+    <t>158 159 160 1300 1301 1645 1646 2698 2700 3176 3909 3910</t>
+  </si>
+  <si>
+    <t>166 171 264 1258 1458 1459 1739 372 377 412 428 429 430 478 491 496 497 498 3897</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>796 3260 3598 3600 3883 3901 3994 4463</t>
+  </si>
+  <si>
+    <t>259 503 781 890 928 991 993 1071 1193 2075 260 265 266 268 269 271 364 415 424 425 3169</t>
+  </si>
+  <si>
+    <t>809 646 1738 3019 3739 3830 3891 4033 4037 4082 4096 4097 4247 4291</t>
+  </si>
+  <si>
+    <t>413 509 618 674 735 1530 2122 2226 2228 2855 451 3000 3047 3074</t>
+  </si>
+  <si>
+    <t>195 3960</t>
+  </si>
+  <si>
+    <t>408 515 553 569 575 619 664 668 677 690 693 696 697 702 761 762 806 814 849 850 851 852 895 899 925 940 1003 1026 1082 1086 1088 1097 1100 1251 1297 1355 1371 1388 1435 1448 1576 1605 1607 1608 1623 1652 1653 1696 1802 1803 1804 1807 1808 1809 1810 1828 1831 1832 1833 1834 1836 1838 1839 1842 1943 1948 1981 1982 1991 2004 2037 2080 2121 2127 2141 2212 2447 2448 2548 2558 2559 2664 2712 2778 2796 2851 2875 2930 3408 3451</t>
+  </si>
+  <si>
+    <t>1972 3046 3089</t>
+  </si>
+  <si>
+    <t>1632 1643 1670 1677 2012</t>
+  </si>
+  <si>
+    <t>248 250 724 3733</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>605 728 1226 4156 4512</t>
+  </si>
+  <si>
+    <t>276 385 469 552 616 669 966 1150</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>540 543</t>
+  </si>
+  <si>
+    <t>825 883 954 1467</t>
+  </si>
+  <si>
+    <t>1759 1813 2051</t>
+  </si>
+  <si>
+    <t>612 858 873</t>
+  </si>
+  <si>
+    <t>419</t>
+  </si>
+  <si>
+    <t>1563</t>
+  </si>
+  <si>
+    <t>556 1666</t>
+  </si>
+  <si>
+    <t>487</t>
+  </si>
+  <si>
+    <t>577</t>
+  </si>
+  <si>
+    <t>494</t>
+  </si>
+  <si>
+    <t>516 558</t>
+  </si>
+  <si>
+    <t>1021 1043</t>
+  </si>
+  <si>
+    <t>1776 1814</t>
+  </si>
+  <si>
+    <t>769 1539</t>
+  </si>
+  <si>
+    <t>767 1030</t>
+  </si>
+  <si>
+    <t>546</t>
+  </si>
+  <si>
+    <t>555 646 780 836 960</t>
+  </si>
+  <si>
+    <t>551 598 611 703 778 1232 1330</t>
+  </si>
+  <si>
+    <t>570 613 617 670 723 1189 1235 1479 1606 1609</t>
+  </si>
+  <si>
+    <t>581 586 630 631 633 721 753 756 835 985 1464 1488 1489 1581 1582 1598</t>
+  </si>
+  <si>
+    <t>558</t>
+  </si>
+  <si>
+    <t>572</t>
+  </si>
+  <si>
+    <t>562 589</t>
+  </si>
+  <si>
+    <t>585 698</t>
+  </si>
+  <si>
+    <t>571</t>
+  </si>
+  <si>
+    <t>1468 1516</t>
+  </si>
+  <si>
+    <t>591</t>
+  </si>
+  <si>
+    <t>1792</t>
+  </si>
+  <si>
+    <t>629 638 751 1257</t>
+  </si>
+  <si>
+    <t>636 640 641 642 905</t>
+  </si>
+  <si>
+    <t>755 758 1322 1540</t>
+  </si>
+  <si>
+    <t>653 655</t>
+  </si>
+  <si>
+    <t>682 1593</t>
+  </si>
+  <si>
+    <t>745 747 749 750 845</t>
+  </si>
+  <si>
+    <t>683 766 772 812 975 1029 1316 1318 1319 1320</t>
+  </si>
+  <si>
+    <t>793 803 830 859 1123 1130 1174 1470 1519</t>
+  </si>
+  <si>
+    <t>694 1629</t>
+  </si>
+  <si>
+    <t>695 1095 1096 1098</t>
+  </si>
+  <si>
+    <t>680</t>
+  </si>
+  <si>
+    <t>1780</t>
+  </si>
+  <si>
+    <t>732 734</t>
+  </si>
+  <si>
+    <t>742 743 744</t>
+  </si>
+  <si>
+    <t>879 882 906</t>
+  </si>
+  <si>
+    <t>898 1117</t>
+  </si>
+  <si>
+    <t>820 1349</t>
+  </si>
+  <si>
+    <t>774 967</t>
+  </si>
+  <si>
+    <t>1012 1093 1277 1525 1554</t>
+  </si>
+  <si>
+    <t>787 868 1217 1250</t>
+  </si>
+  <si>
+    <t>791</t>
+  </si>
+  <si>
+    <t>2056</t>
+  </si>
+  <si>
+    <t>794 896 935 989 1067 1094 1186 1199 1227 1228 1241 1262 1336 1397 1400 1447 1486 1559 1560 1561 1630</t>
+  </si>
+  <si>
+    <t>846 848 1085</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>980 1052 1118 1124</t>
+  </si>
+  <si>
+    <t>1466 1471 1503 1558 1587</t>
+  </si>
+  <si>
+    <t>823 917</t>
+  </si>
+  <si>
+    <t>946 1047 1120 1325</t>
+  </si>
+  <si>
+    <t>931 932 935 945 1364 1373</t>
+  </si>
+  <si>
+    <t>1867 1914</t>
+  </si>
+  <si>
+    <t>935</t>
+  </si>
+  <si>
+    <t>941 996 1001 1002 1034 1036 1087 1147 1149 1155 1156 1163 1164 1166 1254 1263 1266 1295 1298 1352 1365 1366 1368 1414 1430 1437 1445 1475 1537 1569 1589</t>
+  </si>
+  <si>
+    <t>1025 1271 1463 1504 1512</t>
+  </si>
+  <si>
+    <t>1419 1599 1626</t>
+  </si>
+  <si>
+    <t>958</t>
+  </si>
+  <si>
+    <t>1061 1544 1546</t>
+  </si>
+  <si>
+    <t>1480 1575</t>
+  </si>
+  <si>
+    <t>981</t>
+  </si>
+  <si>
+    <t>1044 1051</t>
+  </si>
+  <si>
+    <t>1752 1919</t>
+  </si>
+  <si>
+    <t>1078 1201</t>
+  </si>
+  <si>
+    <t>1024 1059</t>
+  </si>
+  <si>
+    <t>1017 1022</t>
+  </si>
+  <si>
+    <t>1105 1566</t>
+  </si>
+  <si>
+    <t>1075 1079 1081 1234</t>
+  </si>
+  <si>
+    <t>1913 1915</t>
+  </si>
+  <si>
+    <t>1107</t>
+  </si>
+  <si>
+    <t>1128</t>
+  </si>
+  <si>
+    <t>1110 1111 1134</t>
+  </si>
+  <si>
+    <t>1135 1136</t>
+  </si>
+  <si>
+    <t>1142 1167</t>
+  </si>
+  <si>
+    <t>1206 1527</t>
+  </si>
+  <si>
+    <t>1184 1191 1204 1305 1372 1406 1426</t>
+  </si>
+  <si>
+    <t>1165</t>
+  </si>
+  <si>
+    <t>1190</t>
+  </si>
+  <si>
+    <t>1211</t>
+  </si>
+  <si>
+    <t>1231 1485</t>
+  </si>
+  <si>
+    <t>1269 1396</t>
+  </si>
+  <si>
+    <t>1302</t>
+  </si>
+  <si>
+    <t>1405 1441 1491</t>
+  </si>
+  <si>
+    <t>1460 1505</t>
+  </si>
+  <si>
+    <t>1662 1663 1869</t>
+  </si>
+  <si>
+    <t>1633 1777</t>
+  </si>
+  <si>
+    <t>1564 1565 1570</t>
+  </si>
+  <si>
+    <t>1661 1665 1672 1676 1684</t>
+  </si>
+  <si>
+    <t>1673 1674</t>
+  </si>
+  <si>
+    <t>1682 1685 1730</t>
+  </si>
+  <si>
+    <t>1868 1872 1879 1893 1894 1895 1896 1927 1934 1936 2000 2003 2014 2033</t>
+  </si>
+  <si>
+    <t>1690 1694 1731 1875</t>
+  </si>
+  <si>
+    <t>1688 1716 1717 1926</t>
+  </si>
+  <si>
+    <t>1718 2008</t>
+  </si>
+  <si>
+    <t>1697 1723 1725 1728 1753 1762 1773</t>
+  </si>
+  <si>
+    <t>1764 1783 1837 1856 1881 1987 2018 2023</t>
+  </si>
+  <si>
+    <t>1713 1748 1940</t>
+  </si>
+  <si>
+    <t>1741 1743 1795 1890</t>
+  </si>
+  <si>
+    <t>1877 1878</t>
+  </si>
+  <si>
+    <t>1799 2020</t>
+  </si>
+  <si>
+    <t>1781 1782</t>
+  </si>
+  <si>
+    <t>1797 1798 1891</t>
+  </si>
+  <si>
+    <t>1819</t>
+  </si>
+  <si>
+    <t>1923 2059</t>
+  </si>
+  <si>
+    <t>1932</t>
+  </si>
+  <si>
+    <t>1933</t>
+  </si>
+  <si>
+    <t>1967</t>
+  </si>
+  <si>
+    <t>1968 1969</t>
+  </si>
+  <si>
+    <t>1984 1985</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1996</t>
   </si>
 </sst>
 </file>
@@ -2083,43 +2101,43 @@
         <v>43838</v>
       </c>
       <c r="B1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2129,11 +2147,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C292"/>
+  <dimension ref="A1:B290"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C335" sqref="C335"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2141,51 +2157,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
+      <c r="A1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>184</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
-        <v>793</v>
+      <c r="B6" s="2" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2193,23 +2209,23 @@
         <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>45</v>
       </c>
-      <c r="B8" s="2">
-        <v>1171</v>
+      <c r="B8" s="4" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>47</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>186</v>
+      <c r="B9" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2217,7 +2233,7 @@
         <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2225,2262 +2241,2243 @@
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>54</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1200</v>
+        <v>55</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>58</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1317</v>
+        <v>63</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>63</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>229</v>
+        <v>64</v>
+      </c>
+      <c r="B16" s="4">
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>63</v>
-      </c>
-      <c r="B17" s="4">
-        <v>958</v>
+      <c r="A17" s="2">
+        <v>65</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>64</v>
-      </c>
-      <c r="B18" s="2">
-        <v>518</v>
+        <v>68</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>187</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>188</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>69</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1290</v>
+        <v>72</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>321</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>72</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>230</v>
+      <c r="A23" s="4">
+        <v>74</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>73</v>
-      </c>
-      <c r="B24" s="2">
-        <v>1172</v>
+        <v>75</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>74</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>214</v>
+        <v>76</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1959</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>75</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>231</v>
+      <c r="A26" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>76</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1959</v>
+      <c r="A27" s="4">
+        <v>82</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1357</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>78</v>
-      </c>
-      <c r="B28" s="4">
-        <v>666</v>
+      <c r="A28" s="2">
+        <v>83</v>
+      </c>
+      <c r="B28" s="2">
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>323</v>
+      <c r="A29" s="4">
+        <v>86</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>83</v>
-      </c>
-      <c r="B30" s="4">
-        <v>84</v>
+      <c r="A30" s="2">
+        <v>88</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>88</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>189</v>
+      <c r="A32" s="2">
+        <v>93</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>90</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>219</v>
+        <v>97</v>
+      </c>
+      <c r="B33" s="2">
+        <v>645</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>93</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>190</v>
+        <v>101</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2032</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>97</v>
-      </c>
-      <c r="B35" s="2">
-        <v>645</v>
+      <c r="A35" s="4">
+        <v>103</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>101</v>
-      </c>
-      <c r="B36" s="2">
-        <v>2032</v>
+      <c r="A36" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>212</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>106</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>191</v>
+      <c r="A38" s="2">
+        <v>126</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>220</v>
+      <c r="A39" s="2">
+        <v>128</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>192</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>193</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>135</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>292</v>
+      <c r="A43" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>145</v>
-      </c>
-      <c r="B44" s="2">
-        <v>628</v>
+        <v>149</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>146</v>
-      </c>
-      <c r="B45" s="2">
-        <v>1705</v>
+      <c r="A45" s="4">
+        <v>157</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>194</v>
+      <c r="A46" s="2">
+        <v>164</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>157</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>195</v>
+      <c r="A47" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
-        <v>164</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>222</v>
+      <c r="A48" s="2">
+        <v>176</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>223</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>327</v>
+      <c r="A50" s="2">
+        <v>181</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>224</v>
+        <v>272</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>181</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>328</v>
+      <c r="A52" s="4">
+        <v>187</v>
+      </c>
+      <c r="B52" s="4">
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>184</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>225</v>
+        <v>191</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1151</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>187</v>
-      </c>
-      <c r="B54" s="2">
-        <v>188</v>
+      <c r="A54" s="4">
+        <v>193</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
-        <v>191</v>
-      </c>
-      <c r="B55" s="4">
-        <v>1151</v>
+      <c r="A55" s="2">
+        <v>196</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>193</v>
-      </c>
-      <c r="B56" s="2">
-        <v>195</v>
+        <v>200</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
-        <v>196</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>196</v>
+      <c r="A57" s="2">
+        <v>203</v>
+      </c>
+      <c r="B57" s="2">
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>200</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>197</v>
+      <c r="A58" s="4">
+        <v>217</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>203</v>
-      </c>
-      <c r="B59" s="2">
-        <v>206</v>
+        <v>218</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>198</v>
+        <v>276</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
-        <v>218</v>
-      </c>
-      <c r="B61" s="4">
-        <v>1972</v>
+      <c r="A61" s="2">
+        <v>227</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>219</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>293</v>
+        <v>231</v>
+      </c>
+      <c r="B62" s="2">
+        <v>819</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>199</v>
+        <v>277</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>231</v>
-      </c>
-      <c r="B64" s="2">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>232</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>244</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
+        <v>257</v>
+      </c>
+      <c r="B66" s="2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
         <v>267</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B67" s="4">
         <v>1964</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
         <v>275</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>277</v>
+      </c>
+      <c r="B69" s="4">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="B71" s="2">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
-        <v>280</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>299</v>
+      </c>
+      <c r="B73" s="2">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B74" s="2">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B75" s="5" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>309</v>
+      </c>
+      <c r="B75" s="4">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>312</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>314</v>
+      </c>
+      <c r="B77" s="2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>319</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
         <v>337</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>300</v>
-      </c>
-      <c r="B76" s="2">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <v>309</v>
-      </c>
-      <c r="B77" s="2">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
-        <v>312</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C78">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <v>314</v>
-      </c>
-      <c r="B79" s="2">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
-        <v>319</v>
-      </c>
-      <c r="B80" s="2">
-        <v>1332</v>
+      <c r="B79" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>340</v>
+      </c>
+      <c r="B80" s="4">
+        <v>531</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>337</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>338</v>
+        <v>343</v>
+      </c>
+      <c r="B81" s="2">
+        <v>2055</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <v>340</v>
-      </c>
-      <c r="B82" s="2">
-        <v>531</v>
+      <c r="A82" s="4">
+        <v>347</v>
+      </c>
+      <c r="B82" s="4">
+        <v>2061</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="4">
-        <v>343</v>
-      </c>
-      <c r="B83" s="4">
-        <v>2055</v>
+      <c r="A83" s="2">
+        <v>348</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>347</v>
-      </c>
-      <c r="B84" s="2">
-        <v>2061</v>
+        <v>353</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="4">
-        <v>348</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>233</v>
+      <c r="A85" s="2">
+        <v>363</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>353</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>202</v>
+        <v>367</v>
+      </c>
+      <c r="B86" s="2">
+        <v>1698</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <v>363</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>339</v>
+      <c r="A87" s="4">
+        <v>376</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>367</v>
-      </c>
-      <c r="B88" s="2">
-        <v>1698</v>
+        <v>380</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>376</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>234</v>
+        <v>381</v>
+      </c>
+      <c r="B89" s="2">
+        <v>952</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="4">
-        <v>380</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>294</v>
+      <c r="A90" s="2">
+        <v>387</v>
+      </c>
+      <c r="B90" s="2">
+        <v>450</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
-        <v>381</v>
-      </c>
-      <c r="B91" s="2">
-        <v>952</v>
+      <c r="A91" s="4">
+        <v>403</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
-        <v>387</v>
-      </c>
-      <c r="B92" s="2">
-        <v>450</v>
+      <c r="A92" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
-        <v>403</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>235</v>
+      <c r="A93" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>419</v>
-      </c>
-      <c r="B94" s="4">
-        <v>1563</v>
+        <v>439</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>341</v>
+      <c r="A95" s="2">
+        <v>448</v>
+      </c>
+      <c r="B95" s="2">
+        <v>860</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>319</v>
+      <c r="A96" s="2">
+        <v>470</v>
+      </c>
+      <c r="B96" s="2">
+        <v>1715</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="4">
-        <v>448</v>
-      </c>
-      <c r="B97" s="4">
-        <v>860</v>
+      <c r="A97" s="2">
+        <v>471</v>
+      </c>
+      <c r="B97" s="2">
+        <v>1932</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
-        <v>470</v>
-      </c>
-      <c r="B98" s="2">
-        <v>1715</v>
+      <c r="A98" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
-        <v>471</v>
-      </c>
-      <c r="B99" s="2">
-        <v>1932</v>
+      <c r="A99" s="4">
+        <v>488</v>
+      </c>
+      <c r="B99" s="4">
+        <v>1747</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
-        <v>487</v>
-      </c>
-      <c r="B100" s="2">
-        <v>577</v>
+      <c r="A100" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>344</v>
+      <c r="A101" s="4">
+        <v>519</v>
+      </c>
+      <c r="B101" s="4">
+        <v>1091</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="4">
-        <v>494</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>236</v>
+      <c r="A102" s="2">
+        <v>521</v>
+      </c>
+      <c r="B102" s="2">
+        <v>1866</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>346</v>
+      <c r="A103" s="4">
+        <v>526</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
-        <v>521</v>
-      </c>
-      <c r="B104" s="4">
-        <v>1866</v>
+        <v>529</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
-        <v>526</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>237</v>
+      <c r="A105" s="4">
+        <v>532</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
-        <v>529</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>295</v>
+        <v>537</v>
+      </c>
+      <c r="B106" s="4">
+        <v>621</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="4">
-        <v>532</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>347</v>
+      <c r="A107" s="2">
+        <v>539</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
-        <v>537</v>
-      </c>
-      <c r="B108" s="4">
-        <v>621</v>
+        <v>541</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="4">
-        <v>539</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>238</v>
+      <c r="A109" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
-        <v>541</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>239</v>
+      <c r="A110" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="4">
-        <v>546</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>240</v>
+      <c r="A111" s="2">
+        <v>552</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>241</v>
+      <c r="A112" s="4">
+        <v>556</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>349</v>
+        <v>304</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>242</v>
+        <v>305</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
-        <v>556</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>243</v>
+      <c r="A114" s="4">
+        <v>561</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="4">
-        <v>558</v>
-      </c>
-      <c r="B115" s="4">
-        <v>572</v>
+      <c r="A115" s="2">
+        <v>563</v>
+      </c>
+      <c r="B115" s="2">
+        <v>564</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>244</v>
+      <c r="A116" s="4">
+        <v>568</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="4">
-        <v>563</v>
-      </c>
-      <c r="B117" s="4">
-        <v>564</v>
+      <c r="A117" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
-        <v>568</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>245</v>
+      <c r="A118" s="4">
+        <v>590</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="4">
-        <v>571</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>246</v>
+      <c r="A119" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>352</v>
+      <c r="A120" s="4">
+        <v>593</v>
+      </c>
+      <c r="B120" s="4">
+        <v>842</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="4">
-        <v>591</v>
-      </c>
-      <c r="B121" s="4">
-        <v>1792</v>
+      <c r="A121" s="2">
+        <v>595</v>
+      </c>
+      <c r="B121" s="2">
+        <v>718</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>354</v>
+      <c r="A122" s="4">
+        <v>603</v>
+      </c>
+      <c r="B122" s="4">
+        <v>1394</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="4">
-        <v>595</v>
-      </c>
-      <c r="B123" s="4">
-        <v>718</v>
+      <c r="A123" s="2">
+        <v>610</v>
+      </c>
+      <c r="B123" s="2">
+        <v>673</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
-        <v>603</v>
-      </c>
-      <c r="B124" s="2">
-        <v>1394</v>
+      <c r="A124" s="4">
+        <v>616</v>
+      </c>
+      <c r="B124" s="4">
+        <v>669</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="4">
-        <v>610</v>
-      </c>
-      <c r="B125" s="4">
-        <v>673</v>
+      <c r="A125" s="2">
+        <v>621</v>
+      </c>
+      <c r="B125" s="2">
+        <v>711</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
-        <v>616</v>
-      </c>
-      <c r="B126" s="2">
-        <v>669</v>
+      <c r="A126" s="4">
+        <v>628</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
-        <v>621</v>
-      </c>
-      <c r="B127" s="4">
-        <v>711</v>
+        <v>635</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="2">
-        <v>628</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>247</v>
+      <c r="A128" s="4">
+        <v>646</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
-        <v>635</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>248</v>
+        <v>650</v>
+      </c>
+      <c r="B129" s="4">
+        <v>878</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>249</v>
+        <v>315</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
-        <v>650</v>
-      </c>
-      <c r="B131" s="4">
-        <v>878</v>
+        <v>654</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>250</v>
+        <v>317</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>251</v>
+        <v>318</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>252</v>
+        <v>319</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>253</v>
+        <v>320</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="4">
-        <v>673</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>255</v>
+      <c r="A137" s="2">
+        <v>680</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="4">
-        <v>676</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>355</v>
+      <c r="A138" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
-        <v>680</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>256</v>
+        <v>681</v>
+      </c>
+      <c r="B139" s="4">
+        <v>1820</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="2">
-        <v>680</v>
-      </c>
-      <c r="B140" s="2">
-        <v>1780</v>
+      <c r="A140" s="4">
+        <v>707</v>
+      </c>
+      <c r="B140" s="4">
+        <v>1238</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>357</v>
+      <c r="A141" s="4">
+        <v>709</v>
+      </c>
+      <c r="B141" s="4">
+        <v>964</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="B142" s="4">
-        <v>1238</v>
+        <v>729</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="4">
-        <v>709</v>
-      </c>
-      <c r="B143" s="4">
-        <v>964</v>
+      <c r="A143" s="2">
+        <v>731</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
-        <v>711</v>
+        <v>736</v>
       </c>
       <c r="B144" s="4">
-        <v>729</v>
+        <v>874</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>257</v>
+        <v>325</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>736</v>
-      </c>
-      <c r="B146" s="2">
-        <v>874</v>
+        <v>751</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
-        <v>739</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>258</v>
+        <v>754</v>
+      </c>
+      <c r="B147" s="4">
+        <v>981</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="2">
-        <v>754</v>
-      </c>
-      <c r="B149" s="2">
-        <v>981</v>
+      <c r="A149" s="4">
+        <v>760</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
-        <v>757</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>260</v>
+        <v>763</v>
+      </c>
+      <c r="B150" s="4">
+        <v>1348</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
-        <v>760</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>261</v>
+        <v>764</v>
+      </c>
+      <c r="B151" s="4">
+        <v>765</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
-        <v>763</v>
-      </c>
-      <c r="B152" s="4">
-        <v>1348</v>
+        <v>769</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
-        <v>764</v>
-      </c>
-      <c r="B153" s="4">
-        <v>765</v>
+        <v>773</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
-        <v>769</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>358</v>
+        <v>775</v>
+      </c>
+      <c r="B154" s="4">
+        <v>1687</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>262</v>
+        <v>330</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
-        <v>775</v>
-      </c>
-      <c r="B156" s="4">
-        <v>1687</v>
+        <v>786</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="4">
-        <v>780</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>263</v>
+      <c r="A157" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="4">
-        <v>786</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>264</v>
+      <c r="A158" s="2">
+        <v>793</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
-        <v>791</v>
-      </c>
-      <c r="B159" s="4">
-        <v>2056</v>
+        <v>797</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>265</v>
+      <c r="A160" s="2">
+        <v>799</v>
+      </c>
+      <c r="B160" s="2">
+        <v>1857</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="2">
-        <v>797</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>266</v>
+      <c r="A161" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
-        <v>799</v>
-      </c>
-      <c r="B162" s="4">
-        <v>1857</v>
+        <v>802</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="2">
-        <v>800</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>267</v>
+      <c r="A163" s="4">
+        <v>804</v>
+      </c>
+      <c r="B163" s="4">
+        <v>1551</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>268</v>
+      <c r="A164" s="4">
+        <v>805</v>
+      </c>
+      <c r="B164" s="4">
+        <v>902</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
-        <v>804</v>
+        <v>816</v>
       </c>
       <c r="B165" s="4">
-        <v>1551</v>
+        <v>817</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
-        <v>805</v>
-      </c>
-      <c r="B166" s="4">
-        <v>902</v>
+        <v>822</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
-        <v>816</v>
+        <v>824</v>
       </c>
       <c r="B167" s="4">
-        <v>817</v>
+        <v>948</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
-        <v>822</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>269</v>
+        <v>827</v>
+      </c>
+      <c r="B168" s="4">
+        <v>887</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
-        <v>824</v>
+        <v>833</v>
       </c>
       <c r="B169" s="4">
-        <v>948</v>
+        <v>866</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="4">
-        <v>827</v>
-      </c>
-      <c r="B170" s="4">
-        <v>887</v>
+      <c r="A170" s="2">
+        <v>837</v>
+      </c>
+      <c r="B170" s="2">
+        <v>939</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
-        <v>833</v>
-      </c>
-      <c r="B171" s="4">
-        <v>866</v>
+        <v>838</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
-        <v>837</v>
-      </c>
-      <c r="B172" s="4">
-        <v>939</v>
+        <v>844</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="2">
-        <v>838</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>270</v>
+      <c r="A173" s="4">
+        <v>853</v>
+      </c>
+      <c r="B173" s="4">
+        <v>861</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
-        <v>844</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>361</v>
+        <v>854</v>
+      </c>
+      <c r="B174" s="4">
+        <v>1010</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B175" s="4">
-        <v>861</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="4">
-        <v>854</v>
-      </c>
-      <c r="B176" s="4">
-        <v>1010</v>
+      <c r="A176" s="2">
+        <v>869</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
-        <v>855</v>
+        <v>875</v>
       </c>
       <c r="B177" s="4">
-        <v>1811</v>
+        <v>876</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="4">
-        <v>869</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>296</v>
+      <c r="A178" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>875</v>
-      </c>
-      <c r="B179" s="2">
-        <v>876</v>
+        <v>939</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
-        <v>935</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>271</v>
+        <v>942</v>
+      </c>
+      <c r="B180" s="4">
+        <v>1358</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>272</v>
+      <c r="A181" s="4">
+        <v>948</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="2">
-        <v>942</v>
-      </c>
-      <c r="B182" s="2">
-        <v>1358</v>
+      <c r="A182" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
-        <v>948</v>
+        <v>966</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>273</v>
+        <v>349</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
-        <v>958</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>274</v>
+        <v>976</v>
+      </c>
+      <c r="B184" s="4">
+        <v>1032</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>275</v>
+        <v>351</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
-        <v>976</v>
+        <v>995</v>
       </c>
       <c r="B186" s="4">
-        <v>1032</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
-        <v>981</v>
+        <v>1004</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>276</v>
+        <v>352</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B188" s="5" t="s">
-        <v>365</v>
+      <c r="A188" s="4">
+        <v>1005</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
-        <v>1004</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>297</v>
+        <v>1006</v>
+      </c>
+      <c r="B189" s="4">
+        <v>1007</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
-        <v>1005</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>277</v>
+        <v>1008</v>
+      </c>
+      <c r="B190" s="4">
+        <v>1023</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
-        <v>1006</v>
-      </c>
-      <c r="B191" s="4">
-        <v>1007</v>
+        <v>1009</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
-        <v>1008</v>
-      </c>
-      <c r="B192" s="4">
-        <v>1023</v>
+        <v>1010</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="4">
-        <v>1009</v>
-      </c>
-      <c r="B193" s="4" t="s">
-        <v>278</v>
+      <c r="A193" s="2">
+        <v>1014</v>
+      </c>
+      <c r="B193" s="2">
+        <v>1659</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
-        <v>1010</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>279</v>
+        <v>1015</v>
+      </c>
+      <c r="B194" s="4">
+        <v>1494</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
-        <v>1014</v>
+        <v>1042</v>
       </c>
       <c r="B195" s="4">
-        <v>1659</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="2">
-        <v>1015</v>
-      </c>
-      <c r="B196" s="2">
-        <v>1494</v>
+      <c r="A196" s="4">
+        <v>1046</v>
+      </c>
+      <c r="B196" s="4">
+        <v>1053</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="4">
-        <v>1042</v>
-      </c>
-      <c r="B197" s="4">
-        <v>1116</v>
+      <c r="A197" s="2">
+        <v>1048</v>
+      </c>
+      <c r="B197" s="2">
+        <v>1121</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B198" s="4">
-        <v>1053</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
-        <v>1048</v>
-      </c>
-      <c r="B199" s="4">
-        <v>1121</v>
+        <v>1050</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
-        <v>1049</v>
-      </c>
-      <c r="B200" s="2">
-        <v>1122</v>
+        <v>1074</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
-        <v>1050</v>
+        <v>1099</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>280</v>
+        <v>358</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
-        <v>1074</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>281</v>
+        <v>1103</v>
+      </c>
+      <c r="B202" s="4">
+        <v>1132</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
-        <v>1099</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>298</v>
+        <v>1106</v>
+      </c>
+      <c r="B203" s="2">
+        <v>1127</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="4">
-        <v>1103</v>
-      </c>
-      <c r="B204" s="4">
-        <v>1132</v>
+      <c r="A204" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="4">
-        <v>1106</v>
-      </c>
-      <c r="B205" s="4">
-        <v>1127</v>
+      <c r="A205" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="2">
-        <v>1107</v>
-      </c>
-      <c r="B206" s="2">
-        <v>1128</v>
+      <c r="A206" s="4">
+        <v>1109</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="B207" s="5" t="s">
-        <v>367</v>
+      <c r="A207" s="4">
+        <v>1112</v>
+      </c>
+      <c r="B207" s="4">
+        <v>1579</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B208" s="5" t="s">
-        <v>282</v>
+      <c r="A208" s="4">
+        <v>1114</v>
+      </c>
+      <c r="B208" s="4">
+        <v>1138</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
-        <v>1112</v>
-      </c>
-      <c r="B209" s="4">
-        <v>1579</v>
+        <v>1123</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
-        <v>1114</v>
+        <v>1130</v>
       </c>
       <c r="B210" s="4">
-        <v>1138</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
-        <v>1123</v>
-      </c>
-      <c r="B211" s="4" t="s">
-        <v>369</v>
+        <v>1132</v>
+      </c>
+      <c r="B211" s="4">
+        <v>1327</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
-        <v>1130</v>
-      </c>
-      <c r="B212" s="4">
-        <v>1291</v>
+        <v>1134</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
-        <v>1132</v>
-      </c>
-      <c r="B213" s="4">
-        <v>1327</v>
+        <v>1139</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
-        <v>1134</v>
+        <v>1150</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>283</v>
+        <v>364</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
-        <v>1139</v>
+        <v>1154</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>284</v>
+        <v>365</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="4">
-        <v>1150</v>
-      </c>
-      <c r="B216" s="4" t="s">
-        <v>285</v>
+      <c r="A216" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
-        <v>1154</v>
-      </c>
-      <c r="B217" s="4" t="s">
-        <v>286</v>
+        <v>1174</v>
+      </c>
+      <c r="B217" s="4">
+        <v>1181</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
-        <v>1165</v>
-      </c>
-      <c r="B218" s="4">
-        <v>1190</v>
+        <v>1178</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="B219" s="5" t="s">
-        <v>371</v>
+      <c r="A219" s="4">
+        <v>1200</v>
+      </c>
+      <c r="B219" s="4">
+        <v>1398</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
-        <v>1178</v>
+        <v>1205</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>372</v>
+        <v>221</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
-        <v>1200</v>
+        <v>1208</v>
       </c>
       <c r="B221" s="4">
-        <v>1398</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="4">
-        <v>1205</v>
-      </c>
-      <c r="B222" s="4" t="s">
-        <v>373</v>
+      <c r="A222" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
-        <v>1208</v>
+        <v>1212</v>
       </c>
       <c r="B223" s="4">
-        <v>1215</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
-        <v>1211</v>
-      </c>
-      <c r="B224" s="4" t="s">
-        <v>287</v>
+        <v>1234</v>
+      </c>
+      <c r="B224" s="4">
+        <v>1312</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="B225" s="5" t="s">
-        <v>375</v>
+      <c r="A225" s="4">
+        <v>1236</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
-        <v>1234</v>
+        <v>1252</v>
       </c>
       <c r="B226" s="4">
-        <v>1312</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
-        <v>1236</v>
+        <v>1255</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
-        <v>1252</v>
-      </c>
-      <c r="B228" s="4">
-        <v>1274</v>
+        <v>1259</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
-        <v>1255</v>
-      </c>
-      <c r="B229" s="4" t="s">
-        <v>288</v>
+        <v>1272</v>
+      </c>
+      <c r="B229" s="4">
+        <v>1346</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="4">
-        <v>1259</v>
-      </c>
-      <c r="B230" s="4" t="s">
-        <v>377</v>
+      <c r="A230" s="2">
+        <v>1285</v>
+      </c>
+      <c r="B230" s="2">
+        <v>1450</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="4">
-        <v>1272</v>
-      </c>
-      <c r="B231" s="4">
-        <v>1346</v>
+      <c r="A231" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
-        <v>1285</v>
+        <v>1332</v>
       </c>
       <c r="B232" s="4">
-        <v>1450</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
-        <v>1302</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>378</v>
+        <v>1333</v>
+      </c>
+      <c r="B233" s="2">
+        <v>1465</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="B234" s="5" t="s">
-        <v>380</v>
+      <c r="A234" s="4">
+        <v>1356</v>
+      </c>
+      <c r="B234" s="4">
+        <v>1457</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
-        <v>1333</v>
-      </c>
-      <c r="B235" s="4">
-        <v>1465</v>
+        <v>1364</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="2">
-        <v>1356</v>
-      </c>
-      <c r="B236" s="2">
-        <v>1457</v>
+      <c r="A236" s="4">
+        <v>1374</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
-        <v>1364</v>
-      </c>
-      <c r="B237" s="4" t="s">
-        <v>381</v>
+        <v>1413</v>
+      </c>
+      <c r="B237" s="4">
+        <v>1493</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="4">
-        <v>1374</v>
-      </c>
-      <c r="B238" s="4" t="s">
-        <v>289</v>
+      <c r="A238" s="2">
+        <v>1420</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
-        <v>1413</v>
+        <v>1429</v>
       </c>
       <c r="B239" s="4">
-        <v>1493</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
-        <v>1420</v>
+        <v>1432</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>290</v>
+        <v>374</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="2">
-        <v>1429</v>
-      </c>
-      <c r="B241" s="2">
-        <v>1973</v>
+      <c r="A241" s="4">
+        <v>1440</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="4">
-        <v>1432</v>
-      </c>
-      <c r="B242" s="4" t="s">
-        <v>299</v>
+      <c r="A242" s="2">
+        <v>1474</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
-        <v>1440</v>
-      </c>
-      <c r="B243" s="4" t="s">
-        <v>382</v>
+        <v>1481</v>
+      </c>
+      <c r="B243" s="4">
+        <v>1536</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
-        <v>1474</v>
-      </c>
-      <c r="B244" s="4" t="s">
-        <v>300</v>
+        <v>1501</v>
+      </c>
+      <c r="B244" s="4">
+        <v>1874</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="2">
-        <v>1481</v>
-      </c>
-      <c r="B245" s="2">
-        <v>1536</v>
+      <c r="A245" s="4">
+        <v>1522</v>
+      </c>
+      <c r="B245" s="4">
+        <v>1651</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
-        <v>1501</v>
+        <v>1532</v>
       </c>
       <c r="B246" s="4">
-        <v>1874</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
-        <v>1522</v>
+        <v>1556</v>
       </c>
       <c r="B247" s="4">
-        <v>1651</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
-        <v>1532</v>
-      </c>
-      <c r="B248" s="4">
-        <v>1534</v>
+        <v>1562</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
-        <v>1556</v>
-      </c>
-      <c r="B249" s="4">
-        <v>1929</v>
+        <v>1580</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
-        <v>1562</v>
+        <v>1584</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>291</v>
+        <v>377</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
-        <v>1580</v>
-      </c>
-      <c r="B251" s="4" t="s">
-        <v>383</v>
+        <v>1602</v>
+      </c>
+      <c r="B251" s="4">
+        <v>1989</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="4">
-        <v>1584</v>
-      </c>
-      <c r="B252" s="4" t="s">
-        <v>301</v>
+      <c r="A252" s="2">
+        <v>1612</v>
+      </c>
+      <c r="B252" s="2">
+        <v>1613</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
-        <v>1602</v>
+        <v>1636</v>
       </c>
       <c r="B253" s="4">
-        <v>1989</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
-        <v>1612</v>
+        <v>1641</v>
       </c>
       <c r="B254" s="4">
-        <v>1613</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
-        <v>1636</v>
-      </c>
-      <c r="B255" s="2">
-        <v>1637</v>
+        <v>1664</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
-        <v>1641</v>
-      </c>
-      <c r="B256" s="4">
-        <v>2010</v>
+        <v>1666</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
-        <v>1664</v>
-      </c>
-      <c r="B257" s="4" t="s">
-        <v>302</v>
+        <v>1668</v>
+      </c>
+      <c r="B257" s="4">
+        <v>1686</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="2">
-        <v>1666</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>303</v>
+      <c r="A258" s="4">
+        <v>1684</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
-        <v>1668</v>
-      </c>
-      <c r="B259" s="4">
-        <v>1686</v>
+        <v>1685</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>304</v>
+        <v>382</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="4">
-        <v>1685</v>
-      </c>
-      <c r="B261" s="4" t="s">
-        <v>305</v>
+      <c r="A261" s="2">
+        <v>1687</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
-        <v>1686</v>
+        <v>1692</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>306</v>
+        <v>384</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
-        <v>1687</v>
-      </c>
-      <c r="B263" s="4" t="s">
-        <v>307</v>
+        <v>1693</v>
+      </c>
+      <c r="B263" s="4">
+        <v>2001</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="2">
-        <v>1692</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>308</v>
+      <c r="A264" s="4">
+        <v>1698</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="4">
-        <v>1693</v>
-      </c>
-      <c r="B265" s="4">
-        <v>2001</v>
+      <c r="A265" s="2">
+        <v>1699</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
-        <v>1698</v>
-      </c>
-      <c r="B266" s="4" t="s">
-        <v>309</v>
+        <v>1709</v>
+      </c>
+      <c r="B266" s="4">
+        <v>2034</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
-        <v>1699</v>
+        <v>1726</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>310</v>
+        <v>387</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="2">
-        <v>1709</v>
-      </c>
-      <c r="B268" s="2">
-        <v>2034</v>
+      <c r="A268" s="4">
+        <v>1730</v>
+      </c>
+      <c r="B268" s="4">
+        <v>1735</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="4">
-        <v>1726</v>
-      </c>
-      <c r="B269" s="4" t="s">
-        <v>311</v>
+      <c r="A269" s="2">
+        <v>1738</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
-        <v>1730</v>
+        <v>1742</v>
       </c>
       <c r="B270" s="4">
-        <v>1735</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
-        <v>1738</v>
-      </c>
-      <c r="B271" s="4" t="s">
-        <v>312</v>
+        <v>1767</v>
+      </c>
+      <c r="B271" s="4">
+        <v>1916</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="2">
-        <v>1742</v>
-      </c>
-      <c r="B272" s="2">
-        <v>1754</v>
+      <c r="A272" s="4">
+        <v>1768</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
-        <v>1767</v>
+        <v>1771</v>
       </c>
       <c r="B273" s="4">
-        <v>1916</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="4">
-        <v>1768</v>
-      </c>
-      <c r="B274" s="4" t="s">
-        <v>313</v>
+      <c r="A274" s="2">
+        <v>1780</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
-        <v>1771</v>
+        <v>1790</v>
       </c>
       <c r="B275" s="4">
-        <v>1772</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
-        <v>1780</v>
+        <v>1796</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>314</v>
+        <v>391</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="2">
-        <v>1790</v>
-      </c>
-      <c r="B277" s="2">
-        <v>1958</v>
+      <c r="A277" s="4">
+        <v>1811</v>
+      </c>
+      <c r="B277" s="4">
+        <v>1859</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
-        <v>1796</v>
-      </c>
-      <c r="B278" s="4" t="s">
-        <v>315</v>
+        <v>1817</v>
+      </c>
+      <c r="B278" s="4">
+        <v>1950</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="4">
-        <v>1811</v>
-      </c>
-      <c r="B279" s="4">
-        <v>1859</v>
+      <c r="A279" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="4">
-        <v>1817</v>
-      </c>
-      <c r="B280" s="4">
-        <v>1950</v>
+      <c r="A280" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
-        <v>1819</v>
-      </c>
-      <c r="B281" s="4" t="s">
-        <v>316</v>
+        <v>1909</v>
+      </c>
+      <c r="B281" s="4">
+        <v>2042</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="B282" s="5" t="s">
-        <v>385</v>
+      <c r="A282" s="2">
+        <v>1928</v>
+      </c>
+      <c r="B282" s="2">
+        <v>1935</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
-        <v>1928</v>
+        <v>1937</v>
       </c>
       <c r="B284" s="4">
-        <v>1935</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="2">
-        <v>1932</v>
-      </c>
-      <c r="B285" s="2">
-        <v>1933</v>
+      <c r="A285" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
-        <v>388</v>
+        <v>230</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>389</v>
+        <v>231</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
-        <v>1967</v>
+        <v>1983</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>317</v>
+        <v>398</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B289" s="5" t="s">
-        <v>318</v>
+      <c r="A289" s="4">
+        <v>1997</v>
+      </c>
+      <c r="B289" s="4">
+        <v>1998</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="4">
-        <v>1992</v>
-      </c>
-      <c r="B290" s="4">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B291" s="5" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="4">
+      <c r="A290" s="2">
         <v>2027</v>
       </c>
-      <c r="B292" s="4">
+      <c r="B290" s="2">
         <v>2031</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B292">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B289">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4543,7 +4540,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
@@ -4571,7 +4568,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
@@ -4669,7 +4666,7 @@
         <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>29</v>

--- a/STLP/NLP/Files/groups_and_members.xlsx
+++ b/STLP/NLP/Files/groups_and_members.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,21 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WebGenie\STLP\NLP\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83580EF7-7B94-4EF4-A03B-C1C7E50C31CD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEE1F92-2B4A-49B9-8CBE-537143D9AE69}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="5" r:id="rId1"/>
-    <sheet name="groups_and_members" sheetId="6" r:id="rId2"/>
-    <sheet name="nlp_parallel_csv_groups" sheetId="1" r:id="rId3"/>
+    <sheet name="First_stage_groups" sheetId="1" r:id="rId2"/>
+    <sheet name="Second_stage__groups" sheetId="6" r:id="rId3"/>
+    <sheet name="inter_group_matches" sheetId="7" r:id="rId4"/>
+    <sheet name="Third_stage_groups" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="608">
   <si>
     <t>Groups</t>
   </si>
@@ -579,15 +589,9 @@
     <t>79 262</t>
   </si>
   <si>
-    <t>163 815 2371 2531</t>
-  </si>
-  <si>
     <t>198 505 1141 2736</t>
   </si>
   <si>
-    <t>210 2504 2817 1076</t>
-  </si>
-  <si>
     <t>350 544 662 1422 1583 2036</t>
   </si>
   <si>
@@ -627,21 +631,9 @@
     <t>105 416</t>
   </si>
   <si>
-    <t>116 1757 1801 2005 2209 2529 2621 2655 2802 1102 1131 1446 1524 1590 371 1133 1161 1176 1180 1183 1192 1210 1275 1279 1280 1281 1286 1287 1326 1351 1353 1354 1389 1393 1404 1456 1462 1483 1484 1496 1555 1574 1577 1588 1603 1604 1610 1611 1615 1618 1654 1655 1746 1751 1785 1789 1791 1812 1829 1850 1852 1887 1976 1978 1979 2039 2040 2045 2147 2201 2218 2246 2404 2605 2765 2774 2781 2784 947 1000 411</t>
-  </si>
-  <si>
-    <t>441 522 691 442 443</t>
-  </si>
-  <si>
-    <t>237 331 997 391 418</t>
-  </si>
-  <si>
     <t>286 287 288 289 294 295 296 303 325 328 338 394</t>
   </si>
   <si>
-    <t>15 66 77 91 110 111 117 124 125 138 140 141 153 202 214 308 344 351 383 388 395 396 435 449 453 475 502 560 573 620 658 659 738 777 810 813 843 891 894 909 921 924 929 950 994 1035 1073 1152 1198 1233 1246 1294 1299 1310 1377 1380 1381 1382 1408 1416 1423 1444 1451 1453 1476 1533 1707 1719 1720 1721 1805 1806 1835 1840 1841 1843 1844 1845 1846 1847 1848 1849 1883 1911 1917 1924 1939 1947 1951 2007 2013 2015 2044 2057 2058 2068 2079 2085 2103 2140 2183 2184 2214 2222 2344 2443 2444 2756 2758 2813 2871 2889 2952 2982 1391 1617</t>
-  </si>
-  <si>
     <t>246</t>
   </si>
   <si>
@@ -669,9 +661,6 @@
     <t>624 1154</t>
   </si>
   <si>
-    <t>1658 780</t>
-  </si>
-  <si>
     <t>1433 2027</t>
   </si>
   <si>
@@ -681,9 +670,6 @@
     <t>1129</t>
   </si>
   <si>
-    <t>1495 1130</t>
-  </si>
-  <si>
     <t>1203 1222 1983</t>
   </si>
   <si>
@@ -723,12 +709,6 @@
     <t>81 352 916 1502 1648 1650 1770 1784 2549 3079 3238 3452 3951</t>
   </si>
   <si>
-    <t>4 5 6 7 8 10 46 107 118 224 440 919 1153 1182 1383 1384 1418 1424 1492 1552 1616 2480 2744 2763 2767 2950 2980 2983 2987 2994 215 222 273 369 3015 3021 3056 3057 3069 3073 3172 3175 3186 3229 3232 3405 3426 3468 3681 3827 3861 3975 4095 4120 4178 4334 4538</t>
-  </si>
-  <si>
-    <t>12 13 14 17 18 19 20 21 22 23 24 25 26 27 28 29 30 31 32 33 34 38 95 172 270 445 460 501 536 554 576 583 625 627 632 639 663 675 699 716 730 733 737 752 779 789 793 801 831 832 863 888 889 920 926 933 937 949 965 970 979 982 983 984 992 998 1027 1028 1031 1062 1065 1069 1115  1137 1145 1160 1173 1177 1187 1195 1209 1219 1223 1243 1244 1256 1283 1284 1307 1311 1337 1341 1342 1347 1361 1417 1438 1487 1510 1541 1542 1543 1614 1635 1669 1689 1708 1729 1734 1740 1765 1766 1769 1787 1821 1860 1861 1865 1873 1882 1884 1897 1899 1930 1941 1949 1957 1962 1975 1995 2009 2017 2041 2054 2087 2115 2118 2134 2251 2258 2259 2268 2300 2315 2325 2358 2361 2374 2437 2632 2687 2753 2788 2853 261 414 584 893 1237 1578 1627 2581 2674 2849 35 36 40 41 42 44 48 89 94 119 130 132 134 137 142 144 152 173 175 185 189 201 208 228 241 253 281 282 284 285 290 293 375 399 433 436 444 454 455 483 486 495 2377 2384 2388 2389 2396 2408 2416 2418 2419 2436 2438 2452 2467 2475 2484 2494 2498 2515 2517 2521 2523 2526 2527 2532 2534 2536 2537 2541 2546 2550 2551 2553 2554 2555 2557 2567 2572 2577 2583 2585 2592 2616 2636 2637 2638 2639 2640 2641 2643 2647 2648 2658 2665 2670 2673 2680 2682 2686 2691 2692 2705 2717 2718 2722 2729 2730 2732 2733 2734 2735 2739 2748 2750 2754 2768 2773 2790 2794 2801 2806 2816 2833 2839 2840 2841 2843 2846 2847 2864 2876 2877 2879 2887 2893 2906 2919 2928 2937 2964 2973 2974 538 719 834 892 897 955 962 988 1019 1126 1213 1315 1363 1514 1567 1568 1892 1900 1953 2149 2185 2191 2194 2270 2276 2288 278 426 427 623 936 1273 2029 2120 2970 3023 3060 3075 3088 3099 3147 3167 3171 3173 3187 3207 3208 3251 3253 3353 3357 3372 3383 3400 3431 3447 3466 3514 3566 3574 3604 3659 3671 3675 3695 3723 3762 3889 3917 3949 3963 3965 4007 4028 4094 4115 4142 4245 4256 4297 4346 4384 4405 4419 4424 4437 4442 4452 4487 4493 4509 4541 4546 4551 4564 4577 4581 4594</t>
-  </si>
-  <si>
     <t>104 177 334 421 452 476 477 660 1068 1119 1125 2844 3191 3475 4111 4268</t>
   </si>
   <si>
@@ -738,42 +718,24 @@
     <t>306 1045 1056 1101 1710 1727 1793 4173 4380</t>
   </si>
   <si>
-    <t>53 327 565 582 692 768 785 826 934 1179 1239 1452 1573 2231 2247 2313 2329 2378 2434 2743 2795 2896 329 339 349 392 447 481 490 3380 3620 3955 4069 4257 4286 4548</t>
-  </si>
-  <si>
-    <t>535 727 1200 1369 3106</t>
-  </si>
-  <si>
     <t>1293 1498 4114</t>
   </si>
   <si>
-    <t>59 60 62 155 559 790 798 821 1064 1104 1378 1385 1387 1403 1425 1442 1469 1490 1634 1816 1830 1851 1854 1922 2035 2126 2318 2382 2628 2656 2713 2721 2725 2783 2936 2956 2997 162 167 169 197 220 274 390 397 459 480 484 489 705 713 714 1037 1038 1039 1140 1143 1144 1168 1169 1221 1242 1247 1270 1282 1288 1304 1340 1386 1407 1409 1410 1411 1499 1509 1649 1745 1853 1910 1918 1946 2021 2028 2129 2208 2355 2514 3001 3112 3553 3857 3858 4011 4025 4043 4175 4367 4450</t>
-  </si>
-  <si>
     <t>1317 3300 3853</t>
   </si>
   <si>
-    <t>958 1058 3051 3052 3150 3151 3154 3157 3195 3198 3199 3418 4379 4506</t>
-  </si>
-  <si>
     <t>122 133 174 183 226 406 588 770 1077 1733 3323 3446 3525 4214</t>
   </si>
   <si>
     <t>1290 3215 3596 3649 3666 3708 3752 3753 3819 3911 4058 4088 4133 4152 4198 4335 4434 4521 4537 4583</t>
   </si>
   <si>
-    <t>147 211 2391 2631 2669 2675 256 311 317 318 362 378 462 708 712 771 783 1159 1240 1343 1345 1402 1528 1744 1788 2038 2272 2968 1684 1698 4253</t>
-  </si>
-  <si>
     <t>1531 1535</t>
   </si>
   <si>
     <t>1172 3430</t>
   </si>
   <si>
-    <t>112 1737 2996 370 511 626 2238 2456 2614 2829 3895 4168</t>
-  </si>
-  <si>
     <t>720 726 3734</t>
   </si>
   <si>
@@ -786,9 +748,6 @@
     <t>92 647 700 788 918 922 1344 1428 2755 2834 4118 4225</t>
   </si>
   <si>
-    <t>96 98 99 100 102 115 165 401 492 504 557 579 649 651 938 1041 1197 1248 1644 1667 1749 1760 1885 1901 1903 1905 2078 2172 2173 2320 2387 2472 2474 2852 229 493 1571 1902 2143 2707 2904 2909 3020 3594 3899 3947 3956</t>
-  </si>
-  <si>
     <t>479 506 587 594 644 903 904 912 1359 1360 1472 1507 1681 1761 1886 1942 2026 2213 2426 2561 2562 3040 4240</t>
   </si>
   <si>
@@ -798,9 +757,6 @@
     <t>366 434 3914</t>
   </si>
   <si>
-    <t>307 341 953 1375 1412 2086 2092 404 422 4066</t>
-  </si>
-  <si>
     <t>127 321 463 672 701 706 715 717 784 872 1218 1328 1331 1960 2083 2111 2114 2153 2245 2265 2476 2528 2650 2940 3660 3836</t>
   </si>
   <si>
@@ -825,24 +781,12 @@
     <t>158 159 160 1300 1301 1645 1646 2698 2700 3176 3909 3910</t>
   </si>
   <si>
-    <t>166 171 264 1258 1458 1459 1739 372 377 412 428 429 430 478 491 496 497 498 3897</t>
-  </si>
-  <si>
     <t>168</t>
   </si>
   <si>
     <t>796 3260 3598 3600 3883 3901 3994 4463</t>
   </si>
   <si>
-    <t>259 503 781 890 928 991 993 1071 1193 2075 260 265 266 268 269 271 364 415 424 425 3169</t>
-  </si>
-  <si>
-    <t>809 646 1738 3019 3739 3830 3891 4033 4037 4082 4096 4097 4247 4291</t>
-  </si>
-  <si>
-    <t>413 509 618 674 735 1530 2122 2226 2228 2855 451 3000 3047 3074</t>
-  </si>
-  <si>
     <t>195 3960</t>
   </si>
   <si>
@@ -1225,13 +1169,1078 @@
   </si>
   <si>
     <t>1996</t>
+  </si>
+  <si>
+    <t>15 66 77 91 110 111 117 124 125 138 140 141 153 202 214 308 344 351 383 388 395 396 435 449 453 475 502 560 573 620 658 659 738 777 810 813 843 891 894 909 921 924 929 950 994 1035 1073 1152 1198 1233 1246 1294 1299 1310 1377 1380 1381 1382 1391 1408 1416 1423 1444 1451 1453 1476 1533 1617 1707 1719 1720 1721 1805 1806 1835 1840 1841 1843 1844 1845 1846 1847 1848 1849 1883 1911 1917 1924 1939 1947 1951 2007 2013 2015 2044 2057 2058 2068 2079 2085 2103 2140 2183 2184 2214 2222 2344 2443 2444 2756 2758 2813 2871 2889 2952 2982</t>
+  </si>
+  <si>
+    <t>4 5 6 7 8 10 46 107 118 215 222 273 369 440 919 1153 1182 1383 1384 1418 1424 1492 1552 1616 2480 2744 2763 2767 2950 2980 2983 2987 2994 3015 3021 3056 3057 3069 3073 3172 3175 3186 3229 3232 3405 3426 3468 3681 3827 3861 3975 4095 4120 4178 4334 4538</t>
+  </si>
+  <si>
+    <t>12 13 14 17 18 19 20 21 22 23 24 25 26 27 28 29 30 31 32 33 34 35 36 38 40 41 42 44 48 89 94 95 119 130 132 134 137 142 144 152 172 173 175 185 189 201 208 228 241 253 261 270 278 281 282 284 285 290 293 375 399 414 426 427 433 436 444 445 454 460 483 486 495 501 536 538 554 576 583 584 623 625 627 632 639 663 675 699 716 719 730 733 737 752 779 789 793 801 831 832 834 863 888 889 892 893 897 920 926 933 936 937 949 955 962 965 970 979 982 983 984 988 992 998 1019 1027 1028 1031 1062 1065 1069 1115 1126 1137 1145 1160 1173 1177 1187 1195 1209 1213 1219 1223 1243 1244 1256 1273 1283 1284 1307 1311 1315 1337 1341 1342 1347 1361 1363 1417 1438 1487 1510 1514 1541 1542 1543 1567 1568 1614 1635 1669 1689 1708 1729 1734 1740 1765 1766 1769 1787 1821 1860 1861 1865 1873 1882 1884 1892 1897 1899 1900 1930 1941 1949 1953 1957 1962 1975 1995 2009 2017 2029 2041 2054 2087 2115 2118 2120 2134 2149 2185 2191 2194 2251 2258 2259 2268 2270 2276 2288 2300 2315 2325 2358 2361 2374 2377 2384 2388 2389 2396 2408 2416 2418 2419 2436 2437 2438 2452 2467 2475 2484 2494 2498 2515 2517 2521 2523 2526 2527 2532 2534 2536 2537 2541 2546 2550 2551 2553 2554 2555 2557 2567 2572 2577 2581 2583 2585 2592 2616 2632 2636 2637 2638 2639 2640 2641 2643 2647 2648 2658 2665 2670 2673 2680 2682 2686 2687 2691 2692 2705 2717 2718 2722 2729 2730 2732 2733 2734 2735 2739 2748 2750 2753 2754 2768 2773 2788 2790 2794 2801 2806 2816 2833 2839 2840 2841 2843 2846 2847 2853 2864 2876 2877 2879 2887 2893 2906 2919 2928 2937 2964 2970 2973 2974 3023 3060 3075 3088 3099 3147 3167 3171 3173 3187 3207 3208 3251 3253 3353 3357 3372 3383 3400 3431 3447 3466 3514 3566 3574 3604 3659 3671 3675 3695 3723 3762 3889 3917 3949 3963 3965 4007 4094 4115 4142 4245 4256 4297 4384 4405 4419 4424 4437 4442 4487 4493 4509 4541 4546 4564 4577 4581 4594</t>
+  </si>
+  <si>
+    <t>53 327 329 349 481 490 565 582 692 768 785 826 934 1179 1239 1452 1573 2231 2247 2313 2329 2378 2434 2743 2795 2896 3380 3620 3955 4069 4257 4286 4548</t>
+  </si>
+  <si>
+    <t>535 727 1200 1369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59 60 62 155 167 197 220 274 390 397 459 480 489 559 713 714 790 798 821 1037 1038 1039 1064 1104 1140 1143 1144 1168 1247 1270 1282 1304 1340 1378 1385 1386 1387 1403 1407 1409 1410 1411 1425 1442 1469 1490 1499 1509 1634 1649 1745 1816 1830 1851 1853 1854 1910 1918 1922 1946 2021 2028 2035 2126 2129 2318 2355 2382 2514 2628 2656 2713 2721 2725 2783 2936 2956 2997 3001 3112 3553 3857 3858 4011 4025 4043 4175 4367 4450 </t>
+  </si>
+  <si>
+    <t>958 1058 3051 3052 3150 3151 3154 3157 3195 3198 3199 3418 4379 4506 4604</t>
+  </si>
+  <si>
+    <t>815 2371 2531</t>
+  </si>
+  <si>
+    <t>147 211 256 311 317 318 362 378 462 708 712 771 783 1159 1240 1343 1345 1402 1528 1684 1698 1744 1788 2038 2272 2391 2631 2669 2675 2968 4253 4602 4603</t>
+  </si>
+  <si>
+    <t>112 370 511 626 1737 2238 2456 2614 2829 2996 3895 4168</t>
+  </si>
+  <si>
+    <t>116 371 1000 1102 1131 1133 1161 1176 1180 1183 1192 1210 1275 1279 1280 1281 1286 1287 1326 1351 1353 1354 1389 1393 1404 1446 1456 1462 1483 1484 1496 1524 1555 1574 1577 1588 1590 1603 1604 1610 1611 1615 1618 1654 1655 1746 1751 1757 1785 1791 1801 1812 1829 1850 1852 1887 1976 1978 1979 2005 2039 2040 2045 2147 2201 2209 2218 2246 2404 2529 2621 2655 2765 2774 2781 2784 2802</t>
+  </si>
+  <si>
+    <t>96 98 99 100 102 115 165 401 492 493 504 557 579 649 651 938 1041 1197 1248 1571 1644 1667 1749 1760 1885 1901 1902 1903 1905 2078 2143 2172 2173 2320 2387 2472 2474 2707 2852 3020 3594 3899 3947 3956</t>
+  </si>
+  <si>
+    <t>307 341 404 422 953 1375 1412 2086 2092 4066</t>
+  </si>
+  <si>
+    <t>441 442 443 522 691</t>
+  </si>
+  <si>
+    <t>166 171 264 372 377 412 428 429 430 478 491 496 497 498 1258 1458 1459 1739 3897</t>
+  </si>
+  <si>
+    <t>237 331 391 418 997</t>
+  </si>
+  <si>
+    <t>259 260 265 266 268 269 271 364 415 424 425 503 781 890 928 991 993 1071 1193 2075 3169</t>
+  </si>
+  <si>
+    <t>646 809 1738 3019 3739 3830 3891 4033 4037 4082 4096 4097 4247 4291</t>
+  </si>
+  <si>
+    <t>413 451 509 618 674 735 1530 2122 2226 2228 2855 3000 3047 3074</t>
+  </si>
+  <si>
+    <t>210 1076 2504 2817</t>
+  </si>
+  <si>
+    <t>780 1658</t>
+  </si>
+  <si>
+    <t>1130 1495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 37 57 65 88 106 149 176 217 297 298 319 353 363 380 420 590 616 650 669 707 793 800 804 838 869 935 976 1099 1109 1123 1134 1154 1178 1374 1522 1698 1811 1858 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 37 57 86 103 149 217 297 298 319 420 529 590 616 669 680 680 793 804 935 976 1004 1123 1134 1154 1522 1698 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">37 57 72 103 106 176 217 298 353 420 471 680 680 760 800 804 935 1134 1154 1522 1698 1780 1858 1932 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 54 55 65 68 70 73 74 78 90 101 121 131 135 178 267 275 280 300 380 381 488 526 549 595 616 646 650 666 669 763 780 793 822 838 844 854 855 935 1010 1114 1123 1154 1200 1236 1255 1636 1684 1698 1811 1817 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">57 103 106 149 178 217 380 420 561 568 590 595 616 650 669 707 793 800 804 869 935 976 981 1004 1123 1134 1154 1255 1374 1698 1811 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1103 1132 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">58 193 348 666 816 948 1123 1236 1684 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">55 227 381 532 549 838 1200 1602 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">381 838 948 1602 1684 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">65 86 88 146 149 196 217 319 363 420 488 590 616 669 773 793 838 935 1099 1109 1134 1154 1178 1332 1374 1522 1698 1858 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">193 529 1123 1208 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">126 219 280 448 958 1200 1211 1212 1236 1768 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">131 135 838 854 855 1010 1200 1420 1817 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">88 181 537 1005 1556 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">70 90 184 246 267 275 299 300 532 539 541 549 552 591 595 610 666 669 673 769 786 793 822 824 875 942 995 1165 1200 1212 1236 1255 1432 1440 1684 1686 1698 1928 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">74 78 121 149 217 267 275 299 300 337 343 367 380 488 494 526 529 539 549 552 610 616 646 669 763 773 780 793 822 838 935 966 1134 1154 1178 1255 1584 1636 1684 1698 1790 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">90 1211 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">88 176 181 337 367 488 616 646 669 780 935 1005 1099 1154 1234 1374 1522 1556 1636 1698 1738 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">300 532 593 793 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">300 532 593 786 793 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">267 300 347 521 532 549 621 666 669 869 1817 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">149 176 217 297 319 363 420 488 590 616 669 680 680 793 800 935 966 976 1099 1109 1123 1134 1154 1178 1234 1332 1522 1698 1811 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">176 181 187 420 488 616 669 853 935 1005 1099 1109 1134 1154 1234 1374 1522 1698 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">97 131 135 227 246 267 280 300 419 519 546 616 621 646 666 669 786 793 822 824 854 855 1010 1174 1200 1211 1817 1997 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">178 246 541 558 595 610 650 786 793 822 824 948 1236 1255 1420 1432 1641 1684 1768 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">217 353 420 1154 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">217 420 568 590 680 680 800 804 935 1123 1154 1698 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">217 275 299 300 337 343 420 488 494 526 616 646 669 773 780 793 935 1004 1123 1154 1684 1698 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">219 227 244 267 532 541 549 786 793 824 875 948 958 1165 1200 1212 1236 1432 1641 1686 1709 1928 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">135 178 267 300 347 380 381 494 532 549 646 650 666 669 763 793 837 838 844 854 855 935 1010 1200 1420 1684 1692 1698 1811 1817 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">267 280 300 546 616 621 646 666 669 763 793 854 855 935 1010 1174 1200 1817 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">231 244 541 628 751 1165 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">319 420 488 773 793 797 853 935 1134 1154 1698 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">217 319 363 420 488 529 590 616 669 793 935 976 1004 1123 1134 1154 1178 1698 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">439 556 628 751 939 1666 1685 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">178 184 227 246 541 595 650 786 793 855 935 995 1200 1236 1255 1602 1641 1684 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">298 935 1005 1099 1154 1234 1333 1374 1522 1698 1858 1932 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">219 246 300 353 380 381 595 650 707 793 804 838 844 854 855 935 948 995 1123 1154 1200 1236 1255 1302 1602 1641 1684 1692 1698 1811 2027 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">616 646 669 1005 1099 1154 1556 1698 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">541 595 1200 1432 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">319 488 1139 1332 1698 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">319 363 420 590 800 935 1109 1134 1154 1332 1374 1698 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">275 297 319 363 420 488 529 552 590 616 669 680 680 793 935 966 976 1004 1109 1123 1134 1154 1178 1522 1636 1684 1698 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">227 541 549 838 948 995 1165 1212 1236 1285 1602 1666 1684 1686 1730 1768 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">244 419 519 532 541 549 650 666 837 948 995 1200 1211 1212 1236 1255 1285 1420 1602 1641 1666 1684 1686 1768 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">546 646 1174 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">470 666 1909 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">300 786 793 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">300 532 549 793 1686 1817 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">300 488 552 616 669 793 935 966 1130 1134 1154 1174 1178 1522 1636 1684 1698 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">666 816 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">300 347 532 549 591 593 666 711 786 793 1200 1709 1817 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">610 673 793 1698 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">616 621 669 793 1698 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">680 680 1780 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">676 780 1698 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">539 595 669 769 793 935 1698 2027 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">621 666 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">590 1154 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">488 552 616 669 676 780 793 935 966 1005 1015 1099 1154 1636 1698 1738 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">558 948 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">532 595 650 707 793 838 855 935 1154 1255 1811 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">519 837 1562 1817 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">804 1154 1698 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">556 1666 1685 1730 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">558 650 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">590 616 669 680 680 793 935 966 976 1004 1109 1134 1154 1178 1698 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">549 793 854 1010 1200 1709 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">616 621 669 711 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">769 793 1709 2027 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">628 824 948 1236 1420 1432 1440 1928 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">616 646 669 676 780 793 1556 1698 1817 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">666 763 793 854 875 1010 1200 1212 1236 1285 1602 1641 1684 1686 1768 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">616 669 676 793 935 966 976 1150 1178 1522 1636 1684 1698 1738 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">628 802 837 939 1236 1259 1666 1685 1730 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">621 822 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">610 673 793 1255 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">621 669 793 1130 1174 1698 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">666 669 711 1174 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">751 939 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">666 669 711 780 793 822 854 855 935 1556 1698 1817 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">793 1255 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">669 816 1817 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">711 793 855 869 935 1123 1130 1134 1154 1174 1698 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">780 1698 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">680 1780 1780 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">854 1010 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">939 958 1236 1768 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">800 981 1123 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">793 2027 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">780 793 1698 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">793 935 966 1099 1636 1684 1698 1790 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">793 822 824 875 1200 1432 1684 1686 1928 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">822 838 935 966 976 1004 1154 1178 1200 1255 1636 1684 1686 1698 1811 2027 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">804 853 1154 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1364 1811 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">981 1048 1112 1114 1123 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">837 1259 1666 1685 1730 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">935 1154 1474 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">948 1796 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">948 1236 1420 1440 1664 1928 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">939 1685 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">855 1580 1811 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">935 976 1364 1811 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">935 1130 1364 1811 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">966 976 1099 1123 1130 1134 1154 1178 1200 1255 1522 1584 1636 1684 1698 1811 1983 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">948 958 1236 1666 1685 1768 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1150 1584 1684 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1236 1420 1440 1664 1666 1684 1687 1768 1928 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1200 1211 1236 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1522 1698 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1048 1123 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1255 1698 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1015 1099 1698 1738 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1139 1234 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1130 1134 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1154 1522 1698 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1522 1636 1684 1698 1811 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1333 1374 1522 1698 1858 1932 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1212 1668 1686 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1255 1602 1684 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1668 1684 1686 1698 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1285 1481 1817 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1602 1684 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1666 1685 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1692 1726 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1413 1858 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1687 1928 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1684 1811 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1726 1767 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1685 1730 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1686 1698 1811 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1726 1796 </t>
+  </si>
+  <si>
+    <t>[3, 37, 57, 65, 72, 86, 88, 103, 106, 146, 149, 176, 178, 181, 187, 196, 217, 275, 297, 298, 319, 353, 363, 380, 420, 471, 488, 529, 532, 537, 552, 561, 568, 590, 595, 616, 621, 650, 669, 680, 707, 711, 760, 773, 793, 800, 804, 822, 838, 853, 855, 869, 935, 966, 976, 981, 1004, 1005, 1048, 1099, 1109, 1112, 1114, 1123, 1130, 1134, 1154, 1174, 1178, 1200, 1234, 1255, 1332, 1333, 1374, 1413, 1474, 1522, 1556, 1580, 1584, 1636, 1684, 1686, 1698, 1738, 1780, 1811, 1858, 1932, 1983, 2027]</t>
+  </si>
+  <si>
+    <t>[3, 37, 57, 86, 103, 149, 176, 217, 297, 298, 319, 353, 363, 420, 488, 529, 590, 616, 669, 680, 793, 800, 804, 935, 966, 976, 1004, 1099, 1109, 1123, 1134, 1154, 1178, 1234, 1255, 1332, 1522, 1698, 1780, 1811]</t>
+  </si>
+  <si>
+    <t>[50, 54, 55, 58, 65, 68, 70, 73, 74, 78, 88, 90, 97, 101, 121, 131, 135, 149, 176, 178, 181, 184, 193, 217, 219, 227, 246, 267, 275, 280, 299, 300, 337, 343, 347, 348, 353, 367, 380, 381, 419, 420, 488, 494, 519, 521, 526, 529, 532, 539, 541, 546, 549, 552, 591, 593, 595, 610, 616, 621, 646, 650, 666, 669, 673, 707, 711, 763, 769, 773, 780, 786, 793, 804, 816, 822, 824, 837, 838, 844, 854, 855, 869, 875, 935, 942, 948, 966, 976, 995, 1004, 1005, 1010, 1099, 1114, 1123, 1130, 1134, 1154, 1165, 1174, 1178, 1200, 1211, 1212, 1234, 1236, 1255, 1285, 1302, 1364, 1374, 1420, 1432, 1440, 1522, 1556, 1584, 1602, 1636, 1641, 1684, 1686, 1692, 1698, 1709, 1738, 1768, 1790, 1796, 1811, 1817, 1928, 1997, 2027]</t>
+  </si>
+  <si>
+    <t>[1255]</t>
+  </si>
+  <si>
+    <t>[1103, 1132]</t>
+  </si>
+  <si>
+    <t>[193, 529, 1123, 1208]</t>
+  </si>
+  <si>
+    <t>[126, 219, 227, 244, 267, 280, 448, 532, 541, 549, 786, 793, 824, 838, 875, 948, 958, 995, 1165, 1200, 1211, 1212, 1236, 1285, 1432, 1481, 1602, 1641, 1666, 1684, 1686, 1709, 1730, 1768, 1817, 1928]</t>
+  </si>
+  <si>
+    <t>[131, 135, 838, 854, 855, 1010, 1200, 1420, 1817]</t>
+  </si>
+  <si>
+    <t>[300, 532, 549, 593, 621, 793, 822, 854, 1010, 1200, 1709]</t>
+  </si>
+  <si>
+    <t>[300, 532, 593, 786, 793, 822, 824, 875, 1200, 1432, 1684, 1686, 1928]</t>
+  </si>
+  <si>
+    <t>[178, 246, 300, 541, 558, 595, 610, 628, 650, 673, 786, 793, 822, 824, 948, 1236, 1255, 1420, 1432, 1440, 1641, 1664, 1666, 1684, 1687, 1768, 1928]</t>
+  </si>
+  <si>
+    <t>[646]</t>
+  </si>
+  <si>
+    <t>[231, 244, 470, 541, 628, 666, 751, 939, 958, 1165, 1212, 1236, 1668, 1686, 1768, 1909]</t>
+  </si>
+  <si>
+    <t>[319, 420, 488, 773, 780, 793, 797, 804, 853, 935, 1134, 1154, 1698]</t>
+  </si>
+  <si>
+    <t>[439, 556, 628, 751, 802, 837, 939, 948, 958, 1236, 1259, 1666, 1685, 1730, 1768]</t>
+  </si>
+  <si>
+    <t>[178, 184, 227, 244, 246, 419, 519, 532, 541, 549, 595, 650, 666, 786, 793, 837, 855, 935, 948, 995, 1200, 1211, 1212, 1236, 1255, 1285, 1420, 1432, 1602, 1641, 1666, 1684, 1686, 1768]</t>
+  </si>
+  <si>
+    <t>[616, 646, 669, 1005, 1099, 1154, 1556, 1698]</t>
+  </si>
+  <si>
+    <t>[319, 488, 1139, 1332, 1698]</t>
+  </si>
+  <si>
+    <t>[319, 363, 420, 590, 800, 935, 1109, 1134, 1154, 1332, 1374, 1698]</t>
+  </si>
+  <si>
+    <t>[546, 616, 646, 669, 676, 780, 793, 1174, 1556, 1698, 1817]</t>
+  </si>
+  <si>
+    <t>[666, 816]</t>
+  </si>
+  <si>
+    <t>[610, 673, 793, 1698]</t>
+  </si>
+  <si>
+    <t>[680, 1780]</t>
+  </si>
+  <si>
+    <t>[676, 780, 1698]</t>
+  </si>
+  <si>
+    <t>[539, 595, 669, 769, 793, 935, 1698, 1709, 2027]</t>
+  </si>
+  <si>
+    <t>[621, 666, 669, 711, 1174]</t>
+  </si>
+  <si>
+    <t>[488, 552, 616, 669, 676, 780, 793, 935, 966, 976, 1005, 1015, 1099, 1150, 1154, 1178, 1522, 1636, 1684, 1698, 1738]</t>
+  </si>
+  <si>
+    <t>[558, 948]</t>
+  </si>
+  <si>
+    <t>[519, 837, 939, 1562, 1685, 1817]</t>
+  </si>
+  <si>
+    <t>[1932]</t>
+  </si>
+  <si>
+    <t>[558, 650]</t>
+  </si>
+  <si>
+    <t>[666]</t>
+  </si>
+  <si>
+    <t>[616, 621, 669, 711, 854, 1010]</t>
+  </si>
+  <si>
+    <t>[650]</t>
+  </si>
+  <si>
+    <t>[593]</t>
+  </si>
+  <si>
+    <t>[654]</t>
+  </si>
+  <si>
+    <t>[805]</t>
+  </si>
+  <si>
+    <t>[1501]</t>
+  </si>
+  <si>
+    <t>[800, 981, 1048, 1123]</t>
+  </si>
+  <si>
+    <t>[1687]</t>
+  </si>
+  <si>
+    <t>[1364, 1811]</t>
+  </si>
+  <si>
+    <t>[837, 1259, 1666, 1685, 1730]</t>
+  </si>
+  <si>
+    <t>[1150, 1522, 1584, 1636, 1684, 1698, 1811]</t>
+  </si>
+  <si>
+    <t>[1074, 1139, 1234]</t>
+  </si>
+  <si>
+    <t>[1015, 1099, 1698, 1738]</t>
+  </si>
+  <si>
+    <t>[1174]</t>
+  </si>
+  <si>
+    <t>[1154, 1522, 1698]</t>
+  </si>
+  <si>
+    <t>[1668, 1684, 1686, 1698]</t>
+  </si>
+  <si>
+    <t>[1641]</t>
+  </si>
+  <si>
+    <t>[1692, 1726, 1796]</t>
+  </si>
+  <si>
+    <t>[1687, 1928]</t>
+  </si>
+  <si>
+    <t>[1684, 1811]</t>
+  </si>
+  <si>
+    <t>[1726, 1767]</t>
+  </si>
+  <si>
+    <t>[1726]</t>
+  </si>
+  <si>
+    <t>17/1/2020</t>
+  </si>
+  <si>
+    <t>How the super groups were created:</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>First stage testing of pair-wise comparisons gave 70 groups in 500 lines.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Second stage was 501 to 3000 lines against the above groups.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This created 289 groups.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Third stage, first level testing was ‘intra-group’ against master docs created for each group.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It was to ensure that the member docs belong to the group.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Firstly, the members of each group were compared against the master doc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The master doc is a concatenation of the key-phrases column of all the members.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Deleted those which did not match. Only a very few members did not match.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Third stage, second level testing was ‘inter-group’ between groups</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Comparing the group ID against the master doc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The assumption is that if the group ID matches with the master doc then all its members can be added to a single group.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This created 55 groups.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Third stage, third level was to compare the members in each group against other groups.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This created 5 groups.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The assumption is that if even one member in a group is in another group, then the groups can be merged.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Testing these members against the master doc gave too many mis-matches.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hence, this grouping is not right.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fourth stage (not yet done) is to compare the docs from 3001 to the end (19,267) against the master docs and assign them to the 55 groups or create new groups.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1372,6 +2381,31 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1715,7 +2749,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1729,6 +2763,27 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="15"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2084,11 +3139,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2101,43 +3156,158 @@
         <v>43838</v>
       </c>
       <c r="B1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" t="s">
         <v>192</v>
-      </c>
-      <c r="B2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>199</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -2146,2350 +3316,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B290"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>37</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>45</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>47</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>50</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>54</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>55</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>57</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>58</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>63</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>64</v>
-      </c>
-      <c r="B16" s="4">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>65</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>68</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>69</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>70</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>72</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>73</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>74</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>75</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>76</v>
-      </c>
-      <c r="B25" s="4">
-        <v>1959</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>82</v>
-      </c>
-      <c r="B27" s="4">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>83</v>
-      </c>
-      <c r="B28" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>86</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>88</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>90</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>93</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>97</v>
-      </c>
-      <c r="B33" s="2">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>101</v>
-      </c>
-      <c r="B34" s="2">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>103</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>121</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>126</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>128</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>131</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>135</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>145</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>149</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
-        <v>157</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>164</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>176</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>178</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>181</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>184</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <v>187</v>
-      </c>
-      <c r="B52" s="4">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>191</v>
-      </c>
-      <c r="B53" s="2">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
-        <v>193</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>196</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>200</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>203</v>
-      </c>
-      <c r="B57" s="2">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
-        <v>217</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>218</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>219</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>227</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>231</v>
-      </c>
-      <c r="B62" s="2">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>232</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>257</v>
-      </c>
-      <c r="B66" s="2">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
-        <v>267</v>
-      </c>
-      <c r="B67" s="4">
-        <v>1964</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>275</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
-        <v>277</v>
-      </c>
-      <c r="B69" s="4">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <v>297</v>
-      </c>
-      <c r="B71" s="2">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <v>299</v>
-      </c>
-      <c r="B73" s="2">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <v>300</v>
-      </c>
-      <c r="B74" s="2">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
-        <v>309</v>
-      </c>
-      <c r="B75" s="4">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>312</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <v>314</v>
-      </c>
-      <c r="B77" s="2">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <v>319</v>
-      </c>
-      <c r="B78" s="2">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <v>337</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
-        <v>340</v>
-      </c>
-      <c r="B80" s="4">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>343</v>
-      </c>
-      <c r="B81" s="2">
-        <v>2055</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="4">
-        <v>347</v>
-      </c>
-      <c r="B82" s="4">
-        <v>2061</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <v>348</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
-        <v>353</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
-        <v>363</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <v>367</v>
-      </c>
-      <c r="B86" s="2">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="4">
-        <v>376</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
-        <v>380</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
-        <v>381</v>
-      </c>
-      <c r="B89" s="2">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <v>387</v>
-      </c>
-      <c r="B90" s="2">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="4">
-        <v>403</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="4">
-        <v>439</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
-        <v>448</v>
-      </c>
-      <c r="B95" s="2">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
-        <v>470</v>
-      </c>
-      <c r="B96" s="2">
-        <v>1715</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
-        <v>471</v>
-      </c>
-      <c r="B97" s="2">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="4">
-        <v>488</v>
-      </c>
-      <c r="B99" s="4">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="4">
-        <v>519</v>
-      </c>
-      <c r="B101" s="4">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
-        <v>521</v>
-      </c>
-      <c r="B102" s="2">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="4">
-        <v>526</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="4">
-        <v>529</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="4">
-        <v>532</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="4">
-        <v>537</v>
-      </c>
-      <c r="B106" s="4">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
-        <v>539</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="4">
-        <v>541</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
-        <v>552</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="4">
-        <v>556</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="4">
-        <v>561</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
-        <v>563</v>
-      </c>
-      <c r="B115" s="2">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="4">
-        <v>568</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="4">
-        <v>590</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="4">
-        <v>593</v>
-      </c>
-      <c r="B120" s="4">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
-        <v>595</v>
-      </c>
-      <c r="B121" s="2">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="4">
-        <v>603</v>
-      </c>
-      <c r="B122" s="4">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="2">
-        <v>610</v>
-      </c>
-      <c r="B123" s="2">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="4">
-        <v>616</v>
-      </c>
-      <c r="B124" s="4">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
-        <v>621</v>
-      </c>
-      <c r="B125" s="2">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="4">
-        <v>628</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="4">
-        <v>635</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="4">
-        <v>646</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="4">
-        <v>650</v>
-      </c>
-      <c r="B129" s="4">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="4">
-        <v>652</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="4">
-        <v>654</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="4">
-        <v>661</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="4">
-        <v>666</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="4">
-        <v>669</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="4">
-        <v>673</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="4">
-        <v>676</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="2">
-        <v>680</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="4">
-        <v>681</v>
-      </c>
-      <c r="B139" s="4">
-        <v>1820</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="4">
-        <v>707</v>
-      </c>
-      <c r="B140" s="4">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="4">
-        <v>709</v>
-      </c>
-      <c r="B141" s="4">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="4">
-        <v>711</v>
-      </c>
-      <c r="B142" s="4">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="2">
-        <v>731</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="4">
-        <v>736</v>
-      </c>
-      <c r="B144" s="4">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="4">
-        <v>739</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="2">
-        <v>751</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="4">
-        <v>754</v>
-      </c>
-      <c r="B147" s="4">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="4">
-        <v>757</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="4">
-        <v>760</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="4">
-        <v>763</v>
-      </c>
-      <c r="B150" s="4">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="4">
-        <v>764</v>
-      </c>
-      <c r="B151" s="4">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="4">
-        <v>769</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="4">
-        <v>773</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="4">
-        <v>775</v>
-      </c>
-      <c r="B154" s="4">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="4">
-        <v>780</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="4">
-        <v>786</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="2">
-        <v>793</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="4">
-        <v>797</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="2">
-        <v>799</v>
-      </c>
-      <c r="B160" s="2">
-        <v>1857</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="4">
-        <v>802</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="4">
-        <v>804</v>
-      </c>
-      <c r="B163" s="4">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="4">
-        <v>805</v>
-      </c>
-      <c r="B164" s="4">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="4">
-        <v>816</v>
-      </c>
-      <c r="B165" s="4">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="4">
-        <v>822</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="4">
-        <v>824</v>
-      </c>
-      <c r="B167" s="4">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="4">
-        <v>827</v>
-      </c>
-      <c r="B168" s="4">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="4">
-        <v>833</v>
-      </c>
-      <c r="B169" s="4">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="2">
-        <v>837</v>
-      </c>
-      <c r="B170" s="2">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="4">
-        <v>838</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="4">
-        <v>844</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="4">
-        <v>853</v>
-      </c>
-      <c r="B173" s="4">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="4">
-        <v>854</v>
-      </c>
-      <c r="B174" s="4">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="4">
-        <v>855</v>
-      </c>
-      <c r="B175" s="4">
-        <v>1811</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="2">
-        <v>869</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="4">
-        <v>875</v>
-      </c>
-      <c r="B177" s="4">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="2">
-        <v>939</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="4">
-        <v>942</v>
-      </c>
-      <c r="B180" s="4">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="4">
-        <v>948</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="4">
-        <v>966</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="4">
-        <v>976</v>
-      </c>
-      <c r="B184" s="4">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="B185" s="5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="4">
-        <v>995</v>
-      </c>
-      <c r="B186" s="4">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="4">
-        <v>1004</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="4">
-        <v>1005</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="4">
-        <v>1006</v>
-      </c>
-      <c r="B189" s="4">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="4">
-        <v>1008</v>
-      </c>
-      <c r="B190" s="4">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="4">
-        <v>1009</v>
-      </c>
-      <c r="B191" s="4" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="4">
-        <v>1010</v>
-      </c>
-      <c r="B192" s="4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="2">
-        <v>1014</v>
-      </c>
-      <c r="B193" s="2">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="4">
-        <v>1015</v>
-      </c>
-      <c r="B194" s="4">
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="4">
-        <v>1042</v>
-      </c>
-      <c r="B195" s="4">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="4">
-        <v>1046</v>
-      </c>
-      <c r="B196" s="4">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="2">
-        <v>1048</v>
-      </c>
-      <c r="B197" s="2">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="4">
-        <v>1049</v>
-      </c>
-      <c r="B198" s="4">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="4">
-        <v>1050</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="2">
-        <v>1074</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="4">
-        <v>1099</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="4">
-        <v>1103</v>
-      </c>
-      <c r="B202" s="4">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="2">
-        <v>1106</v>
-      </c>
-      <c r="B203" s="2">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="B204" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="B205" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="4">
-        <v>1109</v>
-      </c>
-      <c r="B206" s="4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="4">
-        <v>1112</v>
-      </c>
-      <c r="B207" s="4">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="4">
-        <v>1114</v>
-      </c>
-      <c r="B208" s="4">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="4">
-        <v>1123</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="4">
-        <v>1130</v>
-      </c>
-      <c r="B210" s="4">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="4">
-        <v>1132</v>
-      </c>
-      <c r="B211" s="4">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="4">
-        <v>1134</v>
-      </c>
-      <c r="B212" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="4">
-        <v>1139</v>
-      </c>
-      <c r="B213" s="4" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="4">
-        <v>1150</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="4">
-        <v>1154</v>
-      </c>
-      <c r="B215" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="B216" s="5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="4">
-        <v>1174</v>
-      </c>
-      <c r="B217" s="4">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="4">
-        <v>1178</v>
-      </c>
-      <c r="B218" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="4">
-        <v>1200</v>
-      </c>
-      <c r="B219" s="4">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="4">
-        <v>1205</v>
-      </c>
-      <c r="B220" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="4">
-        <v>1208</v>
-      </c>
-      <c r="B221" s="4">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B222" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="4">
-        <v>1212</v>
-      </c>
-      <c r="B223" s="4">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="4">
-        <v>1234</v>
-      </c>
-      <c r="B224" s="4">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="4">
-        <v>1236</v>
-      </c>
-      <c r="B225" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="4">
-        <v>1252</v>
-      </c>
-      <c r="B226" s="4">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="4">
-        <v>1255</v>
-      </c>
-      <c r="B227" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="4">
-        <v>1259</v>
-      </c>
-      <c r="B228" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="4">
-        <v>1272</v>
-      </c>
-      <c r="B229" s="4">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="2">
-        <v>1285</v>
-      </c>
-      <c r="B230" s="2">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="B231" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="4">
-        <v>1332</v>
-      </c>
-      <c r="B232" s="4">
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="2">
-        <v>1333</v>
-      </c>
-      <c r="B233" s="2">
-        <v>1465</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="4">
-        <v>1356</v>
-      </c>
-      <c r="B234" s="4">
-        <v>1457</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="4">
-        <v>1364</v>
-      </c>
-      <c r="B235" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="4">
-        <v>1374</v>
-      </c>
-      <c r="B236" s="4" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="4">
-        <v>1413</v>
-      </c>
-      <c r="B237" s="4">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="2">
-        <v>1420</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="4">
-        <v>1429</v>
-      </c>
-      <c r="B239" s="4">
-        <v>1973</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="4">
-        <v>1432</v>
-      </c>
-      <c r="B240" s="4" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="4">
-        <v>1440</v>
-      </c>
-      <c r="B241" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="2">
-        <v>1474</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="4">
-        <v>1481</v>
-      </c>
-      <c r="B243" s="4">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="4">
-        <v>1501</v>
-      </c>
-      <c r="B244" s="4">
-        <v>1874</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="4">
-        <v>1522</v>
-      </c>
-      <c r="B245" s="4">
-        <v>1651</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="4">
-        <v>1532</v>
-      </c>
-      <c r="B246" s="4">
-        <v>1534</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="4">
-        <v>1556</v>
-      </c>
-      <c r="B247" s="4">
-        <v>1929</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="4">
-        <v>1562</v>
-      </c>
-      <c r="B248" s="4" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="4">
-        <v>1580</v>
-      </c>
-      <c r="B249" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="4">
-        <v>1584</v>
-      </c>
-      <c r="B250" s="4" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="4">
-        <v>1602</v>
-      </c>
-      <c r="B251" s="4">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="2">
-        <v>1612</v>
-      </c>
-      <c r="B252" s="2">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="4">
-        <v>1636</v>
-      </c>
-      <c r="B253" s="4">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="4">
-        <v>1641</v>
-      </c>
-      <c r="B254" s="4">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="2">
-        <v>1664</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="4">
-        <v>1666</v>
-      </c>
-      <c r="B256" s="4" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="4">
-        <v>1668</v>
-      </c>
-      <c r="B257" s="4">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="4">
-        <v>1684</v>
-      </c>
-      <c r="B258" s="4" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="4">
-        <v>1685</v>
-      </c>
-      <c r="B259" s="4" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="4">
-        <v>1686</v>
-      </c>
-      <c r="B260" s="4" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="2">
-        <v>1687</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="4">
-        <v>1692</v>
-      </c>
-      <c r="B262" s="4" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="4">
-        <v>1693</v>
-      </c>
-      <c r="B263" s="4">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="4">
-        <v>1698</v>
-      </c>
-      <c r="B264" s="4" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="2">
-        <v>1699</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="4">
-        <v>1709</v>
-      </c>
-      <c r="B266" s="4">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="4">
-        <v>1726</v>
-      </c>
-      <c r="B267" s="4" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="4">
-        <v>1730</v>
-      </c>
-      <c r="B268" s="4">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="2">
-        <v>1738</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="4">
-        <v>1742</v>
-      </c>
-      <c r="B270" s="4">
-        <v>1754</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="4">
-        <v>1767</v>
-      </c>
-      <c r="B271" s="4">
-        <v>1916</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="4">
-        <v>1768</v>
-      </c>
-      <c r="B272" s="4" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="4">
-        <v>1771</v>
-      </c>
-      <c r="B273" s="4">
-        <v>1772</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="2">
-        <v>1780</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="4">
-        <v>1790</v>
-      </c>
-      <c r="B275" s="4">
-        <v>1958</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="4">
-        <v>1796</v>
-      </c>
-      <c r="B276" s="4" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="4">
-        <v>1811</v>
-      </c>
-      <c r="B277" s="4">
-        <v>1859</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="4">
-        <v>1817</v>
-      </c>
-      <c r="B278" s="4">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B279" s="5" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B280" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="4">
-        <v>1909</v>
-      </c>
-      <c r="B281" s="4">
-        <v>2042</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="2">
-        <v>1928</v>
-      </c>
-      <c r="B282" s="2">
-        <v>1935</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="B283" s="5" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="4">
-        <v>1937</v>
-      </c>
-      <c r="B284" s="4">
-        <v>1938</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="B285" s="5" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B286" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="4">
-        <v>1983</v>
-      </c>
-      <c r="B287" s="4" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="B288" s="5" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="4">
-        <v>1997</v>
-      </c>
-      <c r="B289" s="4">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="2">
-        <v>2027</v>
-      </c>
-      <c r="B290" s="2">
-        <v>2031</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B289">
-    <sortCondition ref="A1"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -5491,4 +4321,4208 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B290"/>
+  <sheetViews>
+    <sheetView topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>45</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>47</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>54</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>55</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>57</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>58</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>63</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>64</v>
+      </c>
+      <c r="B16" s="4">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>65</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>68</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>69</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>70</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>72</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>73</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>74</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>75</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>76</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>82</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>83</v>
+      </c>
+      <c r="B28" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>86</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>88</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>90</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>93</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>97</v>
+      </c>
+      <c r="B33" s="2">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>101</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>103</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>121</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>126</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>128</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>131</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>135</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>145</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>149</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>157</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>164</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>176</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>178</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>181</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>184</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>187</v>
+      </c>
+      <c r="B52" s="4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>191</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>193</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>196</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>200</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>203</v>
+      </c>
+      <c r="B57" s="2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>217</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>218</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>219</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>227</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>231</v>
+      </c>
+      <c r="B62" s="2">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>232</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>257</v>
+      </c>
+      <c r="B66" s="2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>267</v>
+      </c>
+      <c r="B67" s="4">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>275</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>277</v>
+      </c>
+      <c r="B69" s="4">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>297</v>
+      </c>
+      <c r="B71" s="2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>299</v>
+      </c>
+      <c r="B73" s="2">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>300</v>
+      </c>
+      <c r="B74" s="2">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>309</v>
+      </c>
+      <c r="B75" s="4">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>312</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>314</v>
+      </c>
+      <c r="B77" s="2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>319</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>337</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>340</v>
+      </c>
+      <c r="B80" s="4">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>343</v>
+      </c>
+      <c r="B81" s="2">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>347</v>
+      </c>
+      <c r="B82" s="4">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>348</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>353</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>363</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>367</v>
+      </c>
+      <c r="B86" s="2">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>376</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>380</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>381</v>
+      </c>
+      <c r="B89" s="2">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>387</v>
+      </c>
+      <c r="B90" s="2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>403</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>439</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>448</v>
+      </c>
+      <c r="B95" s="2">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>470</v>
+      </c>
+      <c r="B96" s="2">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>471</v>
+      </c>
+      <c r="B97" s="2">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>488</v>
+      </c>
+      <c r="B99" s="4">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>519</v>
+      </c>
+      <c r="B101" s="4">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>521</v>
+      </c>
+      <c r="B102" s="2">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>526</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>529</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>532</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <v>537</v>
+      </c>
+      <c r="B106" s="4">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>539</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <v>541</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>552</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <v>556</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <v>561</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>563</v>
+      </c>
+      <c r="B115" s="2">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <v>568</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <v>590</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <v>593</v>
+      </c>
+      <c r="B120" s="4">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>595</v>
+      </c>
+      <c r="B121" s="2">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
+        <v>603</v>
+      </c>
+      <c r="B122" s="4">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>610</v>
+      </c>
+      <c r="B123" s="2">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
+        <v>616</v>
+      </c>
+      <c r="B124" s="4">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>621</v>
+      </c>
+      <c r="B125" s="2">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
+        <v>628</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <v>635</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
+        <v>646</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
+        <v>650</v>
+      </c>
+      <c r="B129" s="4">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
+        <v>652</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
+        <v>654</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <v>661</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
+        <v>666</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
+        <v>669</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
+        <v>673</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <v>676</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>680</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
+        <v>681</v>
+      </c>
+      <c r="B139" s="4">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <v>707</v>
+      </c>
+      <c r="B140" s="4">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
+        <v>709</v>
+      </c>
+      <c r="B141" s="4">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
+        <v>711</v>
+      </c>
+      <c r="B142" s="4">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>731</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
+        <v>736</v>
+      </c>
+      <c r="B144" s="4">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <v>739</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>751</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
+        <v>754</v>
+      </c>
+      <c r="B147" s="4">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
+        <v>757</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
+        <v>760</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <v>763</v>
+      </c>
+      <c r="B150" s="4">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
+        <v>764</v>
+      </c>
+      <c r="B151" s="4">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
+        <v>769</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="4">
+        <v>773</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
+        <v>775</v>
+      </c>
+      <c r="B154" s="4">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="4">
+        <v>780</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="4">
+        <v>786</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>793</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="4">
+        <v>797</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>799</v>
+      </c>
+      <c r="B160" s="2">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="4">
+        <v>802</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="4">
+        <v>804</v>
+      </c>
+      <c r="B163" s="4">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="4">
+        <v>805</v>
+      </c>
+      <c r="B164" s="4">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="4">
+        <v>816</v>
+      </c>
+      <c r="B165" s="4">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="4">
+        <v>822</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="4">
+        <v>824</v>
+      </c>
+      <c r="B167" s="4">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="4">
+        <v>827</v>
+      </c>
+      <c r="B168" s="4">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="4">
+        <v>833</v>
+      </c>
+      <c r="B169" s="4">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>837</v>
+      </c>
+      <c r="B170" s="2">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="4">
+        <v>838</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="4">
+        <v>844</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="4">
+        <v>853</v>
+      </c>
+      <c r="B173" s="4">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="4">
+        <v>854</v>
+      </c>
+      <c r="B174" s="4">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="4">
+        <v>855</v>
+      </c>
+      <c r="B175" s="4">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>869</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="4">
+        <v>875</v>
+      </c>
+      <c r="B177" s="4">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>939</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="4">
+        <v>942</v>
+      </c>
+      <c r="B180" s="4">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="4">
+        <v>948</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="4">
+        <v>966</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="4">
+        <v>976</v>
+      </c>
+      <c r="B184" s="4">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="4">
+        <v>995</v>
+      </c>
+      <c r="B186" s="4">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="4">
+        <v>1004</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="4">
+        <v>1005</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="4">
+        <v>1006</v>
+      </c>
+      <c r="B189" s="4">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="4">
+        <v>1008</v>
+      </c>
+      <c r="B190" s="4">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="4">
+        <v>1009</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="4">
+        <v>1010</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>1014</v>
+      </c>
+      <c r="B193" s="2">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="4">
+        <v>1015</v>
+      </c>
+      <c r="B194" s="4">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="4">
+        <v>1042</v>
+      </c>
+      <c r="B195" s="4">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="4">
+        <v>1046</v>
+      </c>
+      <c r="B196" s="4">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
+        <v>1048</v>
+      </c>
+      <c r="B197" s="2">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="4">
+        <v>1049</v>
+      </c>
+      <c r="B198" s="4">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="4">
+        <v>1050</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
+        <v>1074</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="4">
+        <v>1099</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="4">
+        <v>1103</v>
+      </c>
+      <c r="B202" s="4">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
+        <v>1106</v>
+      </c>
+      <c r="B203" s="2">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="4">
+        <v>1109</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="4">
+        <v>1112</v>
+      </c>
+      <c r="B207" s="4">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="4">
+        <v>1114</v>
+      </c>
+      <c r="B208" s="4">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="4">
+        <v>1123</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="4">
+        <v>1130</v>
+      </c>
+      <c r="B210" s="4">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="4">
+        <v>1132</v>
+      </c>
+      <c r="B211" s="4">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="4">
+        <v>1134</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="4">
+        <v>1139</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="4">
+        <v>1150</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="4">
+        <v>1154</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="4">
+        <v>1174</v>
+      </c>
+      <c r="B217" s="4">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="4">
+        <v>1178</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="4">
+        <v>1200</v>
+      </c>
+      <c r="B219" s="4">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="4">
+        <v>1205</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="4">
+        <v>1208</v>
+      </c>
+      <c r="B221" s="4">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="4">
+        <v>1212</v>
+      </c>
+      <c r="B223" s="4">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="4">
+        <v>1234</v>
+      </c>
+      <c r="B224" s="4">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="4">
+        <v>1236</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="4">
+        <v>1252</v>
+      </c>
+      <c r="B226" s="4">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="4">
+        <v>1255</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="4">
+        <v>1259</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="4">
+        <v>1272</v>
+      </c>
+      <c r="B229" s="4">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="2">
+        <v>1285</v>
+      </c>
+      <c r="B230" s="2">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="4">
+        <v>1332</v>
+      </c>
+      <c r="B232" s="4">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="2">
+        <v>1333</v>
+      </c>
+      <c r="B233" s="2">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="4">
+        <v>1356</v>
+      </c>
+      <c r="B234" s="4">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="4">
+        <v>1364</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="4">
+        <v>1374</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="4">
+        <v>1413</v>
+      </c>
+      <c r="B237" s="4">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="2">
+        <v>1420</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="4">
+        <v>1429</v>
+      </c>
+      <c r="B239" s="4">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="4">
+        <v>1432</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="4">
+        <v>1440</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="2">
+        <v>1474</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="4">
+        <v>1481</v>
+      </c>
+      <c r="B243" s="4">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="4">
+        <v>1501</v>
+      </c>
+      <c r="B244" s="4">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="4">
+        <v>1522</v>
+      </c>
+      <c r="B245" s="4">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="4">
+        <v>1532</v>
+      </c>
+      <c r="B246" s="4">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="4">
+        <v>1556</v>
+      </c>
+      <c r="B247" s="4">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="4">
+        <v>1562</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="4">
+        <v>1580</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="4">
+        <v>1584</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="4">
+        <v>1602</v>
+      </c>
+      <c r="B251" s="4">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="2">
+        <v>1612</v>
+      </c>
+      <c r="B252" s="2">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="4">
+        <v>1636</v>
+      </c>
+      <c r="B253" s="4">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="4">
+        <v>1641</v>
+      </c>
+      <c r="B254" s="4">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="2">
+        <v>1664</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="4">
+        <v>1666</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="4">
+        <v>1668</v>
+      </c>
+      <c r="B257" s="4">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="4">
+        <v>1684</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="4">
+        <v>1685</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="4">
+        <v>1686</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="2">
+        <v>1687</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="4">
+        <v>1692</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="4">
+        <v>1693</v>
+      </c>
+      <c r="B263" s="4">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="4">
+        <v>1698</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="2">
+        <v>1699</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="4">
+        <v>1709</v>
+      </c>
+      <c r="B266" s="4">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="4">
+        <v>1726</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="4">
+        <v>1730</v>
+      </c>
+      <c r="B268" s="4">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="2">
+        <v>1738</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="4">
+        <v>1742</v>
+      </c>
+      <c r="B270" s="4">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="4">
+        <v>1767</v>
+      </c>
+      <c r="B271" s="4">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="4">
+        <v>1768</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="4">
+        <v>1771</v>
+      </c>
+      <c r="B273" s="4">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="2">
+        <v>1780</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="4">
+        <v>1790</v>
+      </c>
+      <c r="B275" s="4">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="4">
+        <v>1796</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="4">
+        <v>1811</v>
+      </c>
+      <c r="B277" s="4">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="4">
+        <v>1817</v>
+      </c>
+      <c r="B278" s="4">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="4">
+        <v>1909</v>
+      </c>
+      <c r="B281" s="4">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="2">
+        <v>1928</v>
+      </c>
+      <c r="B282" s="2">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="4">
+        <v>1937</v>
+      </c>
+      <c r="B284" s="4">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="4">
+        <v>1983</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="4">
+        <v>1997</v>
+      </c>
+      <c r="B289" s="4">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="2">
+        <v>2027</v>
+      </c>
+      <c r="B290" s="2">
+        <v>2031</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B289">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A253C74E-8EED-4517-A678-806278653578}">
+  <dimension ref="A1:B173"/>
+  <sheetViews>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>45</v>
+      </c>
+      <c r="B7">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>78</v>
+      </c>
+      <c r="B23" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>86</v>
+      </c>
+      <c r="B24" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>88</v>
+      </c>
+      <c r="B25" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>90</v>
+      </c>
+      <c r="B26" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>93</v>
+      </c>
+      <c r="B27" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>97</v>
+      </c>
+      <c r="B28">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>101</v>
+      </c>
+      <c r="B29">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>103</v>
+      </c>
+      <c r="B30" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>106</v>
+      </c>
+      <c r="B31" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>121</v>
+      </c>
+      <c r="B32" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>126</v>
+      </c>
+      <c r="B33" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>131</v>
+      </c>
+      <c r="B34" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>135</v>
+      </c>
+      <c r="B35" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>145</v>
+      </c>
+      <c r="B36" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>146</v>
+      </c>
+      <c r="B37" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>149</v>
+      </c>
+      <c r="B38" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>164</v>
+      </c>
+      <c r="B39" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>168</v>
+      </c>
+      <c r="B40" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>176</v>
+      </c>
+      <c r="B41" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>178</v>
+      </c>
+      <c r="B42" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>181</v>
+      </c>
+      <c r="B43" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>184</v>
+      </c>
+      <c r="B44" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>196</v>
+      </c>
+      <c r="B45" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>200</v>
+      </c>
+      <c r="B46" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>217</v>
+      </c>
+      <c r="B47" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>219</v>
+      </c>
+      <c r="B48" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>227</v>
+      </c>
+      <c r="B49" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>232</v>
+      </c>
+      <c r="B50" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>244</v>
+      </c>
+      <c r="B51" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>246</v>
+      </c>
+      <c r="B52" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>267</v>
+      </c>
+      <c r="B53" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>275</v>
+      </c>
+      <c r="B54" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>277</v>
+      </c>
+      <c r="B55" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>280</v>
+      </c>
+      <c r="B56" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>299</v>
+      </c>
+      <c r="B57" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>300</v>
+      </c>
+      <c r="B58" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>312</v>
+      </c>
+      <c r="B59" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>319</v>
+      </c>
+      <c r="B60">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>337</v>
+      </c>
+      <c r="B61" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>343</v>
+      </c>
+      <c r="B62" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>347</v>
+      </c>
+      <c r="B63" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>363</v>
+      </c>
+      <c r="B64" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>367</v>
+      </c>
+      <c r="B65" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>376</v>
+      </c>
+      <c r="B66" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>380</v>
+      </c>
+      <c r="B67" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>419</v>
+      </c>
+      <c r="B68" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>420</v>
+      </c>
+      <c r="B69" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>439</v>
+      </c>
+      <c r="B70" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>471</v>
+      </c>
+      <c r="B71">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>488</v>
+      </c>
+      <c r="B72">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>494</v>
+      </c>
+      <c r="B73" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>521</v>
+      </c>
+      <c r="B74">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>526</v>
+      </c>
+      <c r="B75">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>529</v>
+      </c>
+      <c r="B76" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>532</v>
+      </c>
+      <c r="B77" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>537</v>
+      </c>
+      <c r="B78" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>539</v>
+      </c>
+      <c r="B79" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>541</v>
+      </c>
+      <c r="B80" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>546</v>
+      </c>
+      <c r="B81" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>549</v>
+      </c>
+      <c r="B82" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>552</v>
+      </c>
+      <c r="B83" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>556</v>
+      </c>
+      <c r="B84" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>561</v>
+      </c>
+      <c r="B85">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>568</v>
+      </c>
+      <c r="B86">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>590</v>
+      </c>
+      <c r="B87">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>591</v>
+      </c>
+      <c r="B88">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>593</v>
+      </c>
+      <c r="B89" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>595</v>
+      </c>
+      <c r="B90" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>610</v>
+      </c>
+      <c r="B91">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>616</v>
+      </c>
+      <c r="B92" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>621</v>
+      </c>
+      <c r="B93" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>628</v>
+      </c>
+      <c r="B94" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>646</v>
+      </c>
+      <c r="B95" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>650</v>
+      </c>
+      <c r="B96" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>652</v>
+      </c>
+      <c r="B97">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>666</v>
+      </c>
+      <c r="B98" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>669</v>
+      </c>
+      <c r="B99" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>676</v>
+      </c>
+      <c r="B100" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>680</v>
+      </c>
+      <c r="B101" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>707</v>
+      </c>
+      <c r="B102">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>711</v>
+      </c>
+      <c r="B103" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>731</v>
+      </c>
+      <c r="B104">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>736</v>
+      </c>
+      <c r="B105">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>751</v>
+      </c>
+      <c r="B106" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>754</v>
+      </c>
+      <c r="B107" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>769</v>
+      </c>
+      <c r="B108" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>773</v>
+      </c>
+      <c r="B109" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>775</v>
+      </c>
+      <c r="B110">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>780</v>
+      </c>
+      <c r="B111" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>786</v>
+      </c>
+      <c r="B112" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>793</v>
+      </c>
+      <c r="B113" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>797</v>
+      </c>
+      <c r="B114" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>799</v>
+      </c>
+      <c r="B115" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>800</v>
+      </c>
+      <c r="B116" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>802</v>
+      </c>
+      <c r="B117" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>804</v>
+      </c>
+      <c r="B118" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>822</v>
+      </c>
+      <c r="B119" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>824</v>
+      </c>
+      <c r="B120" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>837</v>
+      </c>
+      <c r="B121" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>838</v>
+      </c>
+      <c r="B122" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>844</v>
+      </c>
+      <c r="B123" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>854</v>
+      </c>
+      <c r="B124">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>855</v>
+      </c>
+      <c r="B125" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>935</v>
+      </c>
+      <c r="B126" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>939</v>
+      </c>
+      <c r="B127" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>942</v>
+      </c>
+      <c r="B128" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>948</v>
+      </c>
+      <c r="B129" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>958</v>
+      </c>
+      <c r="B130" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>966</v>
+      </c>
+      <c r="B131" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>976</v>
+      </c>
+      <c r="B132">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>981</v>
+      </c>
+      <c r="B133" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>1004</v>
+      </c>
+      <c r="B134" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>1009</v>
+      </c>
+      <c r="B135">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>1014</v>
+      </c>
+      <c r="B136" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>1015</v>
+      </c>
+      <c r="B137">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>1050</v>
+      </c>
+      <c r="B138">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>1074</v>
+      </c>
+      <c r="B139" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>1099</v>
+      </c>
+      <c r="B140">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>1103</v>
+      </c>
+      <c r="B141">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>1109</v>
+      </c>
+      <c r="B142">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>1123</v>
+      </c>
+      <c r="B143" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>1130</v>
+      </c>
+      <c r="B144" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>1150</v>
+      </c>
+      <c r="B145" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>1154</v>
+      </c>
+      <c r="B146" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>1165</v>
+      </c>
+      <c r="B147" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>1178</v>
+      </c>
+      <c r="B148">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>1200</v>
+      </c>
+      <c r="B149" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>1205</v>
+      </c>
+      <c r="B150" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>1211</v>
+      </c>
+      <c r="B151" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>1236</v>
+      </c>
+      <c r="B152">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>1255</v>
+      </c>
+      <c r="B153" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>1259</v>
+      </c>
+      <c r="B154" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>1285</v>
+      </c>
+      <c r="B155">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>1302</v>
+      </c>
+      <c r="B156" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>1364</v>
+      </c>
+      <c r="B157">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>1374</v>
+      </c>
+      <c r="B158" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>1432</v>
+      </c>
+      <c r="B159">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>1440</v>
+      </c>
+      <c r="B160" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>1474</v>
+      </c>
+      <c r="B161" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>1522</v>
+      </c>
+      <c r="B162">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>1580</v>
+      </c>
+      <c r="B163" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>1584</v>
+      </c>
+      <c r="B164">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>1612</v>
+      </c>
+      <c r="B165">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>1636</v>
+      </c>
+      <c r="B166">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>1666</v>
+      </c>
+      <c r="B167" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>1668</v>
+      </c>
+      <c r="B168">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>1684</v>
+      </c>
+      <c r="B169" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>1685</v>
+      </c>
+      <c r="B170">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>1692</v>
+      </c>
+      <c r="B171" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>1698</v>
+      </c>
+      <c r="B172">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>1726</v>
+      </c>
+      <c r="B173">
+        <v>1796</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BA1AC2-5127-4669-BFE7-F4295581D786}">
+  <dimension ref="A1:B56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>145</v>
+      </c>
+      <c r="B14" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>146</v>
+      </c>
+      <c r="B15" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>164</v>
+      </c>
+      <c r="B16" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>168</v>
+      </c>
+      <c r="B17" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>181</v>
+      </c>
+      <c r="B18" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>196</v>
+      </c>
+      <c r="B19" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>200</v>
+      </c>
+      <c r="B20" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>232</v>
+      </c>
+      <c r="B21" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>277</v>
+      </c>
+      <c r="B22" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>299</v>
+      </c>
+      <c r="B23" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>312</v>
+      </c>
+      <c r="B24" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>337</v>
+      </c>
+      <c r="B25" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>343</v>
+      </c>
+      <c r="B26" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>347</v>
+      </c>
+      <c r="B27" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>367</v>
+      </c>
+      <c r="B28" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>376</v>
+      </c>
+      <c r="B29" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>419</v>
+      </c>
+      <c r="B30" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>471</v>
+      </c>
+      <c r="B31" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>494</v>
+      </c>
+      <c r="B32" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>521</v>
+      </c>
+      <c r="B33" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>537</v>
+      </c>
+      <c r="B34" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>561</v>
+      </c>
+      <c r="B35" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>568</v>
+      </c>
+      <c r="B36" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>591</v>
+      </c>
+      <c r="B37" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>652</v>
+      </c>
+      <c r="B38" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>731</v>
+      </c>
+      <c r="B39" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>736</v>
+      </c>
+      <c r="B40" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>754</v>
+      </c>
+      <c r="B41" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>775</v>
+      </c>
+      <c r="B42" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>799</v>
+      </c>
+      <c r="B43" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>802</v>
+      </c>
+      <c r="B44" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>942</v>
+      </c>
+      <c r="B45" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1009</v>
+      </c>
+      <c r="B46" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1014</v>
+      </c>
+      <c r="B47" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1050</v>
+      </c>
+      <c r="B48" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1130</v>
+      </c>
+      <c r="B49" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1205</v>
+      </c>
+      <c r="B50" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1285</v>
+      </c>
+      <c r="B51" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1302</v>
+      </c>
+      <c r="B52" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1440</v>
+      </c>
+      <c r="B53" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1474</v>
+      </c>
+      <c r="B54" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1580</v>
+      </c>
+      <c r="B55" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1612</v>
+      </c>
+      <c r="B56" t="s">
+        <v>587</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/STLP/NLP/Files/groups_and_members.xlsx
+++ b/STLP/NLP/Files/groups_and_members.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WebGenie\STLP\NLP\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEE1F92-2B4A-49B9-8CBE-537143D9AE69}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5839316-B1ED-44D2-9FC1-5540574E4C1B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="5" r:id="rId1"/>
-    <sheet name="First_stage_groups" sheetId="1" r:id="rId2"/>
-    <sheet name="Second_stage__groups" sheetId="6" r:id="rId3"/>
-    <sheet name="inter_group_matches" sheetId="7" r:id="rId4"/>
-    <sheet name="Third_stage_groups" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="10" r:id="rId2"/>
+    <sheet name="First_stage_groups" sheetId="1" r:id="rId3"/>
+    <sheet name="Second_stage__groups" sheetId="6" r:id="rId4"/>
+    <sheet name="inter_group_matches" sheetId="7" r:id="rId5"/>
+    <sheet name="Third_stage_groups" sheetId="8" r:id="rId6"/>
+    <sheet name="Fourth_stage_groups" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="612">
   <si>
     <t>Groups</t>
   </si>
@@ -2088,78 +2090,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>This created 55 groups.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Third stage, third level was to compare the members in each group against other groups.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>This created 5 groups.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>The assumption is that if even one member in a group is in another group, then the groups can be merged.</t>
     </r>
   </si>
@@ -2212,6 +2142,21 @@
     </r>
   </si>
   <si>
+    <t>3 37 57 65 72 86 88 103 106 146 149 176 178 181 187 196 217 275 297 298 319 353 363 380 420 471 488 529 532 537 552 561 568 590 595 616 621 650 669 680 707 711 760 773 793 800 804 822 838 853 855 869 935 966 976 981 1004 1005 1048 1099 1109 1112 1114 1123 1130 1134 1154 1174 1178 1200 1234 1255 1332 1333 1374 1413 1474 1522 1556 1580 1584 1636 1684 1686 1698 1738 1780 1811 1858 1932 1983 2027 3 37 57 86 103 149 176 217 297 298 319 353 363 420 488 529 590 616 669 680 793 800 804 935 966 976 1004 1099 1109 1123 1134 1154 1178 1234 1255 1332 1522 1698 1780 1811 50 54 55 58 65 68 70 73 74 78 88 90 97 101 121 131 135 149 176 178 181 184 193 217 219 227 246 267 275 280 299 300 337 343 347 348 353 367 380 381 419 420 488 494 519 521 526 529 532 539 541 546 549 552 591 593 595 610 616 621 646 650 666 669 673 707 711 763 769 773 780 786 793 804 816 822 824 837 838 844 854 855 869 875 935 942 948 966 976 995 1004 1005 1010 1099 1114 1123 1130 1134 1154 1165 1174 1178 1200 1211 1212 1234 1236 1255 1285 1302 1364 1374 1420 1432 1440 1522 1556 1584 1602 1636 1641 1684 1686 1692 1698 1709 1738 1768 1790 1796 1811 1817 1928 1997 2027 1255 193 529 1123 1208 126 219 227 244 267 280 448 532 541 549 786 793 824 838 875 948 958 995 1165 1200 1211 1212 1236 1285 1432 1481 1602 1641 1666 1684 1686 1709 1730 1768 1817 1928 131 135 838 854 855 1010 1200 1420 1817 300 532 549 593 621 793 822 854 1010 1200 1709 300 532 593 786 793 822 824 875 1200 1432 1684 1686 1928 178 246 300 541 558 595 610 628 650 673 786 793 822 824 948 1236 1255 1420 1432 1440 1641 1664 1666 1684 1687 1768 1928 646 231 244 470 541 628 666 751 939 958 1165 1212 1236 1668 1686 1768 1909 319 420 488 773 780 793 797 804 853 935 1134 1154 1698 439 556 628 751 802 837 939 948 958 1236 1259 1666 1685 1730 1768 178 184 227 244 246 419 519 532 541 549 595 650 666 786 793 837 855 935 948 995 1200 1211 1212 1236 1255 1285 1420 1432 1602 1641 1666 1684 1686 1768 616 646 669 1005 1099 1154 1556 1698 319 488 1139 1332 1698 319 363 420 590 800 935 1109 1134 1154 1332 1374 1698 546 616 646 669 676 780 793 1174 1556 1698 1817 666 816 610 673 793 1698 680 1780 676 780 1698 539 595 669 769 793 935 1698 1709 2027 621 666 669 711 1174 488 552 616 669 676 780 793 935 966 976 1005 1015 1099 1150 1154 1178 1522 1636 1684 1698 1738 558 948 519 837 939 1562 1685 1817 1932 558 650 666 616 621 669 711 854 1010 650 650 593 800 981 1048 1123 1687 1364 1811 837 1259 1666 1685 1730 1150 1522 1584 1636 1684 1698 1811 1074 1139 1234 1015 1099 1698 1738 1174 1154 1522 1698 1668 1684 1686 1698 1641 1692 1726 1796 1687 1928 1684 1811 1726 1767 1726</t>
+  </si>
+  <si>
+    <t>306 1045 1056 1101 1103 1132 1710 1727 1793 4173 4380</t>
+  </si>
+  <si>
+    <t>653 654 655</t>
+  </si>
+  <si>
+    <t>732 734 805</t>
+  </si>
+  <si>
+    <t>874 1501</t>
+  </si>
+  <si>
     <r>
       <t>·</t>
     </r>
@@ -2222,7 +2167,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">         </t>
+      <t>         F</t>
     </r>
     <r>
       <rPr>
@@ -2232,7 +2177,34 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Fourth stage (not yet done) is to compare the docs from 3001 to the end (19,267) against the master docs and assign them to the 55 groups or create new groups.</t>
+      <t>ourth stage was was to compare the members in each group against other groups.</t>
+    </r>
+  </si>
+  <si>
+    <t>This created 55 groups ("Third_Stage_groups" in the Excel).</t>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This created 5 groups ("Fourth_stage_groups" in Excel).</t>
     </r>
   </si>
 </sst>
@@ -2240,7 +2212,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2406,6 +2378,13 @@
       <color theme="1"/>
       <name val="Wingdings"/>
       <charset val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2749,7 +2728,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2784,6 +2763,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -3140,10 +3125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3201,7 +3186,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="14" t="s">
         <v>589</v>
       </c>
     </row>
@@ -3270,8 +3255,8 @@
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>601</v>
+      <c r="A25" s="13" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -3279,36 +3264,31 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>607</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3316,6 +3296,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC3146CE-0738-4FEA-8F8A-E9C83609A37A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F71"/>
   <sheetViews>
@@ -4323,7 +4315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B290"/>
   <sheetViews>
@@ -6665,7 +6657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A253C74E-8EED-4517-A678-806278653578}">
   <dimension ref="A1:B173"/>
   <sheetViews>
@@ -8064,11 +8056,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BA1AC2-5127-4669-BFE7-F4295581D786}">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -8525,4 +8517,59 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626F2A74-7055-44D6-B818-B4C7324BB6D2}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>652</v>
+      </c>
+      <c r="B3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>731</v>
+      </c>
+      <c r="B4" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>736</v>
+      </c>
+      <c r="B5" t="s">
+        <v>608</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>